--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>492154.9062765502</v>
+        <v>359442.0971400384</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1031014.869386101</v>
+        <v>932032.3303307677</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23327009.85576315</v>
+        <v>23268997.70193246</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5122466.941153672</v>
+        <v>5150376.913023912</v>
       </c>
     </row>
     <row r="11">
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>33.02557404290958</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>37.49497507142323</v>
       </c>
       <c r="G11" t="n">
-        <v>25.75359370674563</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>37.49497507142323</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>37.49497507142323</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>25.75359370674562</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.23886660620531</v>
+        <v>37.49497507142323</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>37.49497507142323</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>33.02557404290958</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>37.49497507142323</v>
       </c>
     </row>
     <row r="13">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>43.30589398504222</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>43.30589398504222</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>25.75359370674563</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>38.14383142202517</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.23886660620531</v>
+        <v>43.30589398504222</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>38.14383142202517</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.22458912873703</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,22 +1730,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>43.30589398504222</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>43.30589398504222</v>
       </c>
       <c r="V15" t="n">
-        <v>29.23886660620531</v>
+        <v>43.30589398504222</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>45.55924250423406</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="H17" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>45.55924250423406</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
     </row>
     <row r="19">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>45.55924250423406</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>59.75657007276242</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="V21" t="n">
-        <v>45.55924250423406</v>
+        <v>59.75657007276241</v>
       </c>
       <c r="W21" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2362,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>66.59218285739217</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="U23" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>66.68191730512692</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>66.68191730512692</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>75.70608231735569</v>
+        <v>68.00583860436758</v>
       </c>
       <c r="V24" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="J26" t="n">
-        <v>62.27902778684214</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.2082294730605</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>11.90074236257996</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>66.59218285739217</v>
       </c>
     </row>
     <row r="27">
@@ -2645,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>45.47683402635902</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="H27" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>66.68191730512692</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R27" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2797,25 +2797,25 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>11.90074236257996</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>62.27902778684214</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>68.2082294730605</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>66.59218285739217</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>66.68191730512692</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>45.47683402635902</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2915,16 +2915,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R30" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>75.59312527848202</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="T32" t="n">
-        <v>74.17977014942207</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>66.6819173051269</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>68.00583860436758</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="T33" t="n">
-        <v>75.70608231735571</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="U35" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="V35" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>59.75657007276241</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>37.22756549475386</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3389,16 +3389,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="T36" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>59.75657007276244</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.84351733964857</v>
+        <v>61.56365992601125</v>
       </c>
       <c r="T38" t="n">
-        <v>67.84351733964857</v>
+        <v>69.89516340373672</v>
       </c>
       <c r="U38" t="n">
-        <v>67.84351733964857</v>
+        <v>69.89516340373672</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>69.89516340373672</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>59.75657007276244</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>67.84351733964857</v>
+        <v>69.89516340373672</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>69.89516340373672</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>67.84351733964857</v>
+        <v>69.89516340373672</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>61.56365992601125</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3739,58 +3739,58 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="C41" t="n">
-        <v>39.95092127527401</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>45.35754004913036</v>
+        <v>39.95092127527401</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3863,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>17.42191669726541</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="W42" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="Y42" t="n">
         <v>45.35754004913036</v>
@@ -3976,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>45.35754004913036</v>
+      </c>
+      <c r="V44" t="n">
+        <v>45.35754004913036</v>
+      </c>
+      <c r="W44" t="n">
         <v>39.95092127527401</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>45.35754004913036</v>
-      </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4073,46 +4073,46 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>45.35754004913036</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>17.42191669726542</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>22.5290045780086</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>45.35754004913036</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>116.9554664248212</v>
+        <v>74.23247589897932</v>
       </c>
       <c r="C11" t="n">
-        <v>116.9554664248212</v>
+        <v>74.23247589897932</v>
       </c>
       <c r="D11" t="n">
-        <v>116.9554664248212</v>
+        <v>74.23247589897932</v>
       </c>
       <c r="E11" t="n">
-        <v>116.9554664248212</v>
+        <v>40.87331019907065</v>
       </c>
       <c r="F11" t="n">
-        <v>116.9554664248212</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="G11" t="n">
-        <v>90.94173540790645</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="H11" t="n">
-        <v>61.40752671476977</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="I11" t="n">
-        <v>31.8733180216331</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="J11" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="K11" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="L11" t="n">
-        <v>31.28558726863968</v>
+        <v>40.11962332642285</v>
       </c>
       <c r="M11" t="n">
-        <v>60.23206520878293</v>
+        <v>77.23964864713184</v>
       </c>
       <c r="N11" t="n">
-        <v>89.17854314892618</v>
+        <v>114.3596739678408</v>
       </c>
       <c r="O11" t="n">
-        <v>103.0009800184834</v>
+        <v>149.9799002856929</v>
       </c>
       <c r="P11" t="n">
-        <v>116.9554664248212</v>
+        <v>149.9799002856929</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.9554664248212</v>
+        <v>149.9799002856929</v>
       </c>
       <c r="R11" t="n">
-        <v>116.9554664248212</v>
+        <v>149.9799002856929</v>
       </c>
       <c r="S11" t="n">
-        <v>116.9554664248212</v>
+        <v>149.9799002856929</v>
       </c>
       <c r="T11" t="n">
-        <v>116.9554664248212</v>
+        <v>149.9799002856929</v>
       </c>
       <c r="U11" t="n">
-        <v>116.9554664248212</v>
+        <v>112.1061880923361</v>
       </c>
       <c r="V11" t="n">
-        <v>116.9554664248212</v>
+        <v>74.23247589897932</v>
       </c>
       <c r="W11" t="n">
-        <v>116.9554664248212</v>
+        <v>74.23247589897932</v>
       </c>
       <c r="X11" t="n">
-        <v>116.9554664248212</v>
+        <v>74.23247589897932</v>
       </c>
       <c r="Y11" t="n">
-        <v>116.9554664248212</v>
+        <v>74.23247589897932</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87.42125773168455</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="C12" t="n">
-        <v>87.42125773168455</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="D12" t="n">
-        <v>57.88704903854787</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="E12" t="n">
-        <v>57.88704903854787</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="F12" t="n">
-        <v>57.88704903854787</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="G12" t="n">
-        <v>57.88704903854787</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="H12" t="n">
-        <v>57.88704903854787</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="I12" t="n">
-        <v>31.8733180216331</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="J12" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="K12" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="L12" t="n">
-        <v>30.11603260439146</v>
+        <v>10.54969375016842</v>
       </c>
       <c r="M12" t="n">
-        <v>59.06251054453472</v>
+        <v>47.66971907087742</v>
       </c>
       <c r="N12" t="n">
-        <v>88.00898848467797</v>
+        <v>84.78974439158642</v>
       </c>
       <c r="O12" t="n">
-        <v>116.9554664248212</v>
+        <v>112.8598749649839</v>
       </c>
       <c r="P12" t="n">
-        <v>116.9554664248212</v>
+        <v>149.9799002856929</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.9554664248212</v>
+        <v>149.9799002856929</v>
       </c>
       <c r="R12" t="n">
-        <v>87.42125773168455</v>
+        <v>112.1061880923361</v>
       </c>
       <c r="S12" t="n">
-        <v>87.42125773168455</v>
+        <v>74.23247589897932</v>
       </c>
       <c r="T12" t="n">
-        <v>87.42125773168455</v>
+        <v>74.23247589897932</v>
       </c>
       <c r="U12" t="n">
-        <v>87.42125773168455</v>
+        <v>74.23247589897932</v>
       </c>
       <c r="V12" t="n">
-        <v>87.42125773168455</v>
+        <v>74.23247589897932</v>
       </c>
       <c r="W12" t="n">
-        <v>87.42125773168455</v>
+        <v>74.23247589897932</v>
       </c>
       <c r="X12" t="n">
-        <v>87.42125773168455</v>
+        <v>40.87331019907065</v>
       </c>
       <c r="Y12" t="n">
-        <v>87.42125773168455</v>
+        <v>2.999598005713858</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="C13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="D13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="E13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="F13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="G13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="H13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="I13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="J13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="K13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="L13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="M13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="N13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="O13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="P13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="R13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="S13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="T13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="U13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="V13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="W13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="X13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.339109328496424</v>
+        <v>2.999598005713858</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.339109328496424</v>
+        <v>90.95112603404019</v>
       </c>
       <c r="C14" t="n">
-        <v>2.339109328496424</v>
+        <v>90.95112603404019</v>
       </c>
       <c r="D14" t="n">
-        <v>2.339109328496424</v>
+        <v>90.95112603404019</v>
       </c>
       <c r="E14" t="n">
-        <v>2.339109328496424</v>
+        <v>47.20779877642178</v>
       </c>
       <c r="F14" t="n">
-        <v>2.339109328496424</v>
+        <v>47.20779877642178</v>
       </c>
       <c r="G14" t="n">
-        <v>2.339109328496424</v>
+        <v>47.20779877642178</v>
       </c>
       <c r="H14" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="I14" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="J14" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="K14" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="L14" t="n">
-        <v>30.11603260439146</v>
+        <v>46.33730656399517</v>
       </c>
       <c r="M14" t="n">
-        <v>59.06251054453472</v>
+        <v>89.21014160918696</v>
       </c>
       <c r="N14" t="n">
-        <v>88.00898848467797</v>
+        <v>132.0829766543787</v>
       </c>
       <c r="O14" t="n">
-        <v>116.9554664248212</v>
+        <v>173.2235759401689</v>
       </c>
       <c r="P14" t="n">
-        <v>116.9554664248212</v>
+        <v>173.2235759401689</v>
       </c>
       <c r="Q14" t="n">
-        <v>87.42125773168455</v>
+        <v>173.2235759401689</v>
       </c>
       <c r="R14" t="n">
-        <v>87.42125773168455</v>
+        <v>173.2235759401689</v>
       </c>
       <c r="S14" t="n">
-        <v>61.40752671476977</v>
+        <v>173.2235759401689</v>
       </c>
       <c r="T14" t="n">
-        <v>61.40752671476977</v>
+        <v>173.2235759401689</v>
       </c>
       <c r="U14" t="n">
-        <v>61.40752671476977</v>
+        <v>173.2235759401689</v>
       </c>
       <c r="V14" t="n">
-        <v>61.40752671476977</v>
+        <v>134.6944532916586</v>
       </c>
       <c r="W14" t="n">
-        <v>61.40752671476977</v>
+        <v>134.6944532916586</v>
       </c>
       <c r="X14" t="n">
-        <v>31.8733180216331</v>
+        <v>134.6944532916586</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.339109328496424</v>
+        <v>90.95112603404019</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.13047875773111</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="C15" t="n">
-        <v>35.13047875773111</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="D15" t="n">
-        <v>5.596270064594435</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="E15" t="n">
-        <v>5.596270064594435</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="F15" t="n">
-        <v>5.596270064594435</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="G15" t="n">
-        <v>5.596270064594435</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="H15" t="n">
-        <v>5.596270064594435</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="I15" t="n">
-        <v>5.596270064594435</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="J15" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="K15" t="n">
-        <v>2.339109328496424</v>
+        <v>17.56585766621937</v>
       </c>
       <c r="L15" t="n">
-        <v>30.11603260439146</v>
+        <v>60.43869271141116</v>
       </c>
       <c r="M15" t="n">
-        <v>59.06251054453472</v>
+        <v>103.311527756603</v>
       </c>
       <c r="N15" t="n">
-        <v>88.00898848467797</v>
+        <v>146.1843628017947</v>
       </c>
       <c r="O15" t="n">
-        <v>116.9554664248212</v>
+        <v>173.2235759401689</v>
       </c>
       <c r="P15" t="n">
-        <v>116.9554664248212</v>
+        <v>173.2235759401689</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.19889614400446</v>
+        <v>173.2235759401689</v>
       </c>
       <c r="R15" t="n">
-        <v>94.19889614400446</v>
+        <v>173.2235759401689</v>
       </c>
       <c r="S15" t="n">
-        <v>64.66468745086779</v>
+        <v>173.2235759401689</v>
       </c>
       <c r="T15" t="n">
-        <v>64.66468745086779</v>
+        <v>129.4802486825505</v>
       </c>
       <c r="U15" t="n">
-        <v>64.66468745086779</v>
+        <v>85.73692142493206</v>
       </c>
       <c r="V15" t="n">
-        <v>35.13047875773111</v>
+        <v>41.99359416731366</v>
       </c>
       <c r="W15" t="n">
-        <v>35.13047875773111</v>
+        <v>41.99359416731366</v>
       </c>
       <c r="X15" t="n">
-        <v>35.13047875773111</v>
+        <v>41.99359416731366</v>
       </c>
       <c r="Y15" t="n">
-        <v>35.13047875773111</v>
+        <v>41.99359416731366</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="C16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="D16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="E16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="F16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="G16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="H16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="I16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="J16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="K16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="L16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="M16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="N16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="O16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="P16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="R16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="S16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="T16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="U16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="V16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="W16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="X16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.464471518803378</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>206.8993755868941</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="C17" t="n">
-        <v>206.8993755868941</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="D17" t="n">
-        <v>206.8993755868941</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="E17" t="n">
-        <v>206.8993755868941</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="F17" t="n">
-        <v>206.8993755868941</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="G17" t="n">
-        <v>160.8799387139304</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H17" t="n">
-        <v>108.6326216465329</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I17" t="n">
-        <v>56.38530457913537</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J17" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K17" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L17" t="n">
-        <v>55.34558296949416</v>
+        <v>63.3937731823219</v>
       </c>
       <c r="M17" t="n">
-        <v>106.5531784272504</v>
+        <v>130.558855348574</v>
       </c>
       <c r="N17" t="n">
-        <v>157.7607738850067</v>
+        <v>197.7239375148261</v>
       </c>
       <c r="O17" t="n">
-        <v>192.9448891805563</v>
+        <v>257.4195829522564</v>
       </c>
       <c r="P17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U17" t="n">
-        <v>206.8993755868941</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="V17" t="n">
-        <v>206.8993755868941</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="W17" t="n">
-        <v>206.8993755868941</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="X17" t="n">
-        <v>206.8993755868941</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="Y17" t="n">
-        <v>206.8993755868941</v>
+        <v>73.9562867807563</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>206.8993755868941</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="C18" t="n">
-        <v>206.8993755868941</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="D18" t="n">
-        <v>206.8993755868941</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E18" t="n">
-        <v>206.8993755868941</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F18" t="n">
-        <v>206.8993755868941</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G18" t="n">
-        <v>160.8799387139304</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H18" t="n">
-        <v>108.6326216465329</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I18" t="n">
-        <v>56.38530457913537</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J18" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K18" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L18" t="n">
-        <v>18.35839512098693</v>
+        <v>72.59256355342397</v>
       </c>
       <c r="M18" t="n">
-        <v>63.26235976962597</v>
+        <v>137.0439050260901</v>
       </c>
       <c r="N18" t="n">
-        <v>114.4699552273822</v>
+        <v>204.2089871923422</v>
       </c>
       <c r="O18" t="n">
-        <v>165.6775506851385</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="P18" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q18" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R18" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S18" t="n">
-        <v>206.8993755868941</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="T18" t="n">
-        <v>206.8993755868941</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="U18" t="n">
-        <v>206.8993755868941</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="V18" t="n">
-        <v>206.8993755868941</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="W18" t="n">
-        <v>206.8993755868941</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="X18" t="n">
-        <v>206.8993755868941</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="Y18" t="n">
-        <v>206.8993755868941</v>
+        <v>142.4850921743407</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>56.38530457913537</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="C20" t="n">
-        <v>56.38530457913537</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="D20" t="n">
-        <v>56.38530457913537</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="E20" t="n">
-        <v>4.137987511737881</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="F20" t="n">
-        <v>4.137987511737881</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="G20" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H20" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I20" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J20" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K20" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L20" t="n">
-        <v>39.32210280728744</v>
+        <v>63.39377318232184</v>
       </c>
       <c r="M20" t="n">
-        <v>90.52969826504372</v>
+        <v>130.5588553485739</v>
       </c>
       <c r="N20" t="n">
-        <v>141.7372937228</v>
+        <v>190.2545007860044</v>
       </c>
       <c r="O20" t="n">
-        <v>192.9448891805563</v>
+        <v>257.4195829522565</v>
       </c>
       <c r="P20" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q20" t="n">
-        <v>206.8993755868941</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="R20" t="n">
-        <v>206.8993755868941</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="S20" t="n">
-        <v>206.8993755868941</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="T20" t="n">
-        <v>206.8993755868941</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="U20" t="n">
-        <v>154.6520585194966</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="V20" t="n">
-        <v>154.6520585194966</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="W20" t="n">
-        <v>154.6520585194966</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="X20" t="n">
-        <v>154.6520585194966</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="Y20" t="n">
-        <v>102.4047414520991</v>
+        <v>202.8452639650098</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.38530457913537</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C21" t="n">
-        <v>56.38530457913537</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D21" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E21" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F21" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G21" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H21" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I21" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J21" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K21" t="n">
-        <v>4.137987511737881</v>
+        <v>33.69317533542468</v>
       </c>
       <c r="L21" t="n">
-        <v>55.34558296949416</v>
+        <v>92.13994037745107</v>
       </c>
       <c r="M21" t="n">
-        <v>104.4841846713815</v>
+        <v>137.0439050260901</v>
       </c>
       <c r="N21" t="n">
-        <v>155.6917801291378</v>
+        <v>204.2089871923422</v>
       </c>
       <c r="O21" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="P21" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q21" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R21" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S21" t="n">
-        <v>206.8993755868941</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="T21" t="n">
-        <v>206.8993755868941</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="U21" t="n">
-        <v>206.8993755868941</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="V21" t="n">
-        <v>160.8799387139304</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W21" t="n">
-        <v>108.6326216465329</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X21" t="n">
-        <v>108.6326216465329</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y21" t="n">
-        <v>56.38530457913537</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.52727680493966</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L23" t="n">
-        <v>64.02277838053847</v>
+        <v>64.14302554668204</v>
       </c>
       <c r="M23" t="n">
-        <v>138.9717998747206</v>
+        <v>140.5801057218908</v>
       </c>
       <c r="N23" t="n">
-        <v>213.9208213689028</v>
+        <v>217.0171858970997</v>
       </c>
       <c r="O23" t="n">
-        <v>288.8698428630849</v>
+        <v>293.4542660723085</v>
       </c>
       <c r="P23" t="n">
-        <v>302.8243292694228</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="Q23" t="n">
-        <v>302.8243292694228</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="R23" t="n">
-        <v>302.8243292694228</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="S23" t="n">
-        <v>302.8243292694228</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="T23" t="n">
-        <v>302.8243292694228</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="U23" t="n">
-        <v>226.3535390498716</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="V23" t="n">
-        <v>149.8827488303204</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="W23" t="n">
-        <v>149.8827488303204</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X23" t="n">
-        <v>82.52727680493966</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.52727680493966</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.41195861076919</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="C24" t="n">
-        <v>73.41195861076919</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="D24" t="n">
-        <v>73.41195861076919</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="E24" t="n">
-        <v>6.056486585388456</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="F24" t="n">
-        <v>6.056486585388456</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="G24" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H24" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I24" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J24" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K24" t="n">
-        <v>6.056486585388456</v>
+        <v>34.44242769978484</v>
       </c>
       <c r="L24" t="n">
-        <v>81.00550807957059</v>
+        <v>59.85096711978835</v>
       </c>
       <c r="M24" t="n">
-        <v>125.9094727282096</v>
+        <v>136.2880472949972</v>
       </c>
       <c r="N24" t="n">
-        <v>193.0745548944618</v>
+        <v>203.4531294612493</v>
       </c>
       <c r="O24" t="n">
-        <v>227.8753077752406</v>
+        <v>232.3996074013925</v>
       </c>
       <c r="P24" t="n">
-        <v>302.8243292694228</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="Q24" t="n">
-        <v>302.8243292694228</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="R24" t="n">
-        <v>302.8243292694228</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="S24" t="n">
-        <v>302.8243292694228</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="T24" t="n">
-        <v>302.8243292694228</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="U24" t="n">
-        <v>226.3535390498716</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="V24" t="n">
-        <v>149.8827488303204</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="W24" t="n">
-        <v>73.41195861076919</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="X24" t="n">
-        <v>73.41195861076919</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="Y24" t="n">
-        <v>73.41195861076919</v>
+        <v>162.1548587902196</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="M25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="N25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="O25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="P25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="R25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="S25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="T25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="U25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="V25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="W25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>145.4353856805378</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="C26" t="n">
-        <v>145.4353856805378</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="D26" t="n">
-        <v>145.4353856805378</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="E26" t="n">
-        <v>145.4353856805378</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="F26" t="n">
-        <v>145.4353856805378</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="G26" t="n">
-        <v>68.96459546098657</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="H26" t="n">
-        <v>68.96459546098657</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="I26" t="n">
-        <v>68.96459546098657</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J26" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K26" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L26" t="n">
-        <v>64.02277838053847</v>
+        <v>64.14302554668204</v>
       </c>
       <c r="M26" t="n">
-        <v>138.9717998747206</v>
+        <v>140.5801057218908</v>
       </c>
       <c r="N26" t="n">
-        <v>213.9208213689028</v>
+        <v>217.0171858970997</v>
       </c>
       <c r="O26" t="n">
-        <v>288.8698428630849</v>
+        <v>293.4542660723085</v>
       </c>
       <c r="P26" t="n">
-        <v>302.8243292694228</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="Q26" t="n">
-        <v>233.9271277814829</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="R26" t="n">
-        <v>157.4563375619317</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="S26" t="n">
-        <v>145.4353856805378</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="T26" t="n">
-        <v>145.4353856805378</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="U26" t="n">
-        <v>145.4353856805378</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="V26" t="n">
-        <v>145.4353856805378</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="W26" t="n">
-        <v>145.4353856805378</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="X26" t="n">
-        <v>145.4353856805378</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.4353856805378</v>
+        <v>240.1439213095634</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>149.8827488303204</v>
+        <v>130.101992257097</v>
       </c>
       <c r="C27" t="n">
-        <v>149.8827488303204</v>
+        <v>130.101992257097</v>
       </c>
       <c r="D27" t="n">
-        <v>149.8827488303204</v>
+        <v>130.101992257097</v>
       </c>
       <c r="E27" t="n">
-        <v>149.8827488303204</v>
+        <v>130.101992257097</v>
       </c>
       <c r="F27" t="n">
-        <v>149.8827488303204</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="G27" t="n">
-        <v>149.8827488303204</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H27" t="n">
-        <v>73.41195861076919</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I27" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J27" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K27" t="n">
-        <v>6.056486585388456</v>
+        <v>34.44242769978484</v>
       </c>
       <c r="L27" t="n">
-        <v>81.00550807957059</v>
+        <v>110.8795078749937</v>
       </c>
       <c r="M27" t="n">
-        <v>155.9545295737527</v>
+        <v>187.3165880502025</v>
       </c>
       <c r="N27" t="n">
-        <v>227.8753077752406</v>
+        <v>263.7536682254113</v>
       </c>
       <c r="O27" t="n">
-        <v>302.8243292694228</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="P27" t="n">
-        <v>302.8243292694228</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="Q27" t="n">
-        <v>302.8243292694228</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="R27" t="n">
-        <v>226.3535390498716</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="S27" t="n">
-        <v>226.3535390498716</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="T27" t="n">
-        <v>226.3535390498716</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="U27" t="n">
-        <v>226.3535390498716</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="V27" t="n">
-        <v>226.3535390498716</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="W27" t="n">
-        <v>226.3535390498716</v>
+        <v>130.101992257097</v>
       </c>
       <c r="X27" t="n">
-        <v>226.3535390498716</v>
+        <v>130.101992257097</v>
       </c>
       <c r="Y27" t="n">
-        <v>149.8827488303204</v>
+        <v>130.101992257097</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="M28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="N28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="O28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="P28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Q28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="R28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="S28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="T28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="U28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="V28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="W28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y28" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>157.4563375619317</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="C29" t="n">
-        <v>157.4563375619317</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="D29" t="n">
-        <v>157.4563375619317</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="E29" t="n">
-        <v>157.4563375619317</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="F29" t="n">
-        <v>157.4563375619317</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G29" t="n">
-        <v>157.4563375619317</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H29" t="n">
-        <v>145.4353856805378</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I29" t="n">
-        <v>68.96459546098657</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J29" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K29" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L29" t="n">
-        <v>64.02277838053847</v>
+        <v>64.14302554668204</v>
       </c>
       <c r="M29" t="n">
-        <v>138.9717998747206</v>
+        <v>140.5801057218908</v>
       </c>
       <c r="N29" t="n">
-        <v>213.9208213689028</v>
+        <v>217.0171858970997</v>
       </c>
       <c r="O29" t="n">
-        <v>288.8698428630849</v>
+        <v>293.4542660723085</v>
       </c>
       <c r="P29" t="n">
-        <v>302.8243292694228</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="Q29" t="n">
-        <v>233.9271277814829</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="R29" t="n">
-        <v>157.4563375619317</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="S29" t="n">
-        <v>157.4563375619317</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="T29" t="n">
-        <v>157.4563375619317</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="U29" t="n">
-        <v>157.4563375619317</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="V29" t="n">
-        <v>157.4563375619317</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="W29" t="n">
-        <v>157.4563375619317</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="X29" t="n">
-        <v>157.4563375619317</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="Y29" t="n">
-        <v>157.4563375619317</v>
+        <v>240.1439213095634</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73.41195861076919</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="C30" t="n">
-        <v>6.056486585388456</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="D30" t="n">
-        <v>6.056486585388456</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="E30" t="n">
-        <v>6.056486585388456</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="F30" t="n">
-        <v>6.056486585388456</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="G30" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H30" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I30" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J30" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K30" t="n">
-        <v>6.056486585388456</v>
+        <v>34.44242769978484</v>
       </c>
       <c r="L30" t="n">
-        <v>20.27689419463754</v>
+        <v>110.8795078749937</v>
       </c>
       <c r="M30" t="n">
-        <v>95.22591568881967</v>
+        <v>187.3165880502025</v>
       </c>
       <c r="N30" t="n">
-        <v>162.3909978550718</v>
+        <v>263.7536682254113</v>
       </c>
       <c r="O30" t="n">
-        <v>237.3400193492539</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="P30" t="n">
-        <v>302.8243292694228</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="Q30" t="n">
-        <v>302.8243292694228</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="R30" t="n">
-        <v>226.3535390498716</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="S30" t="n">
-        <v>226.3535390498716</v>
+        <v>130.101992257097</v>
       </c>
       <c r="T30" t="n">
-        <v>226.3535390498716</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="U30" t="n">
-        <v>226.3535390498716</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="V30" t="n">
-        <v>226.3535390498716</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="W30" t="n">
-        <v>149.8827488303204</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="X30" t="n">
-        <v>73.41195861076919</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="Y30" t="n">
-        <v>73.41195861076919</v>
+        <v>52.11292973775326</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="M31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="N31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="O31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="P31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="R31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="S31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="T31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="U31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="V31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="W31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>158.9980670244909</v>
+        <v>82.53342595201892</v>
       </c>
       <c r="C32" t="n">
-        <v>158.9980670244909</v>
+        <v>82.53342595201892</v>
       </c>
       <c r="D32" t="n">
-        <v>158.9980670244909</v>
+        <v>82.53342595201892</v>
       </c>
       <c r="E32" t="n">
-        <v>82.52727680493967</v>
+        <v>82.53342595201892</v>
       </c>
       <c r="F32" t="n">
-        <v>6.056486585388456</v>
+        <v>82.53342595201892</v>
       </c>
       <c r="G32" t="n">
-        <v>6.056486585388456</v>
+        <v>82.53342595201892</v>
       </c>
       <c r="H32" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I32" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J32" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K32" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L32" t="n">
-        <v>64.02277838053847</v>
+        <v>64.14302554668204</v>
       </c>
       <c r="M32" t="n">
-        <v>138.9717998747206</v>
+        <v>140.5801057218908</v>
       </c>
       <c r="N32" t="n">
-        <v>213.9208213689028</v>
+        <v>217.0171858970997</v>
       </c>
       <c r="O32" t="n">
-        <v>288.8698428630849</v>
+        <v>293.4542660723085</v>
       </c>
       <c r="P32" t="n">
-        <v>302.8243292694228</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="Q32" t="n">
-        <v>233.9271277814829</v>
+        <v>238.5115509907065</v>
       </c>
       <c r="R32" t="n">
-        <v>233.9271277814829</v>
+        <v>238.5115509907065</v>
       </c>
       <c r="S32" t="n">
-        <v>233.9271277814829</v>
+        <v>160.5224884713627</v>
       </c>
       <c r="T32" t="n">
-        <v>158.9980670244909</v>
+        <v>82.53342595201892</v>
       </c>
       <c r="U32" t="n">
-        <v>158.9980670244909</v>
+        <v>82.53342595201892</v>
       </c>
       <c r="V32" t="n">
-        <v>158.9980670244909</v>
+        <v>82.53342595201892</v>
       </c>
       <c r="W32" t="n">
-        <v>158.9980670244909</v>
+        <v>82.53342595201892</v>
       </c>
       <c r="X32" t="n">
-        <v>158.9980670244909</v>
+        <v>82.53342595201892</v>
       </c>
       <c r="Y32" t="n">
-        <v>158.9980670244909</v>
+        <v>82.53342595201892</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>73.41195861076918</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C33" t="n">
-        <v>73.41195861076918</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D33" t="n">
-        <v>73.41195861076918</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E33" t="n">
-        <v>73.41195861076918</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F33" t="n">
-        <v>73.41195861076918</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G33" t="n">
-        <v>73.41195861076918</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H33" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I33" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J33" t="n">
-        <v>6.056486585388456</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K33" t="n">
-        <v>6.056486585388456</v>
+        <v>34.44242769978484</v>
       </c>
       <c r="L33" t="n">
-        <v>20.27689419463754</v>
+        <v>48.66283530903392</v>
       </c>
       <c r="M33" t="n">
-        <v>85.76120411480645</v>
+        <v>93.56679995767298</v>
       </c>
       <c r="N33" t="n">
-        <v>152.9262862810585</v>
+        <v>160.7318821239251</v>
       </c>
       <c r="O33" t="n">
-        <v>227.8753077752407</v>
+        <v>232.3996074013925</v>
       </c>
       <c r="P33" t="n">
-        <v>302.8243292694228</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="Q33" t="n">
-        <v>302.8243292694228</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="R33" t="n">
-        <v>302.8243292694228</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="S33" t="n">
-        <v>302.8243292694228</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="T33" t="n">
-        <v>226.3535390498716</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="U33" t="n">
-        <v>226.3535390498716</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="V33" t="n">
-        <v>149.8827488303204</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="W33" t="n">
-        <v>149.8827488303204</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X33" t="n">
-        <v>149.8827488303204</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y33" t="n">
-        <v>149.8827488303204</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="M34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="N34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="O34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="P34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Q34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="R34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="S34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="T34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="U34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="V34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="W34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.427481387171886</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="C35" t="n">
-        <v>5.427481387171886</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="D35" t="n">
-        <v>5.427481387171886</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="E35" t="n">
-        <v>5.427481387171886</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="F35" t="n">
-        <v>5.427481387171886</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="G35" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H35" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I35" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J35" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K35" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L35" t="n">
-        <v>63.3937731823219</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M35" t="n">
-        <v>130.558855348574</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N35" t="n">
-        <v>197.7239375148261</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O35" t="n">
-        <v>257.4195829522564</v>
+        <v>288.869842863085</v>
       </c>
       <c r="P35" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q35" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R35" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S35" t="n">
-        <v>271.3740693585943</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="T35" t="n">
-        <v>271.3740693585943</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="U35" t="n">
-        <v>202.8452639650098</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="V35" t="n">
-        <v>134.3164585714254</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="W35" t="n">
-        <v>65.78765317784099</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="X35" t="n">
-        <v>5.427481387171886</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="Y35" t="n">
-        <v>5.427481387171886</v>
+        <v>73.41195861076918</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>43.03108289702428</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="C36" t="n">
-        <v>43.03108289702428</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="D36" t="n">
-        <v>43.03108289702428</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="E36" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F36" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G36" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H36" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I36" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J36" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K36" t="n">
-        <v>33.6931753354247</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L36" t="n">
-        <v>100.8582575016768</v>
+        <v>81.0055080795706</v>
       </c>
       <c r="M36" t="n">
-        <v>145.7622221503159</v>
+        <v>155.9545295737528</v>
       </c>
       <c r="N36" t="n">
-        <v>212.927304316568</v>
+        <v>227.8753077752407</v>
       </c>
       <c r="O36" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="P36" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q36" t="n">
-        <v>248.6174990777775</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R36" t="n">
-        <v>180.0886936841931</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S36" t="n">
-        <v>111.5598882906087</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="T36" t="n">
-        <v>43.03108289702428</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="U36" t="n">
-        <v>43.03108289702428</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="V36" t="n">
-        <v>43.03108289702428</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="W36" t="n">
-        <v>43.03108289702428</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="X36" t="n">
-        <v>43.03108289702428</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="Y36" t="n">
-        <v>43.03108289702428</v>
+        <v>73.41195861076918</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="C38" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="D38" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="E38" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="F38" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="G38" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="H38" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="I38" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="J38" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="K38" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="L38" t="n">
-        <v>63.3937731823219</v>
+        <v>63.55790486744895</v>
       </c>
       <c r="M38" t="n">
-        <v>130.558855348574</v>
+        <v>132.7541166371483</v>
       </c>
       <c r="N38" t="n">
-        <v>197.7239375148261</v>
+        <v>196.4299554389096</v>
       </c>
       <c r="O38" t="n">
-        <v>264.8890196810781</v>
+        <v>265.626167208609</v>
       </c>
       <c r="P38" t="n">
-        <v>271.3740693585943</v>
+        <v>279.5806536149469</v>
       </c>
       <c r="Q38" t="n">
-        <v>271.3740693585943</v>
+        <v>279.5806536149469</v>
       </c>
       <c r="R38" t="n">
-        <v>211.0138975679251</v>
+        <v>279.5806536149469</v>
       </c>
       <c r="S38" t="n">
-        <v>142.4850921743407</v>
+        <v>217.3951385381678</v>
       </c>
       <c r="T38" t="n">
-        <v>73.9562867807563</v>
+        <v>146.7939633828782</v>
       </c>
       <c r="U38" t="n">
-        <v>5.427481387171886</v>
+        <v>76.19278822758857</v>
       </c>
       <c r="V38" t="n">
-        <v>5.427481387171886</v>
+        <v>76.19278822758857</v>
       </c>
       <c r="W38" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="X38" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="Y38" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>202.8452639650098</v>
+        <v>146.7939633828782</v>
       </c>
       <c r="C39" t="n">
-        <v>142.4850921743407</v>
+        <v>146.7939633828782</v>
       </c>
       <c r="D39" t="n">
-        <v>142.4850921743407</v>
+        <v>146.7939633828782</v>
       </c>
       <c r="E39" t="n">
-        <v>73.9562867807563</v>
+        <v>146.7939633828782</v>
       </c>
       <c r="F39" t="n">
-        <v>5.427481387171886</v>
+        <v>76.19278822758857</v>
       </c>
       <c r="G39" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="H39" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="I39" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="J39" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="K39" t="n">
-        <v>33.6931753354247</v>
+        <v>33.85730702055176</v>
       </c>
       <c r="L39" t="n">
-        <v>47.91358294467379</v>
+        <v>69.3689170902131</v>
       </c>
       <c r="M39" t="n">
-        <v>92.81754759331285</v>
+        <v>114.2728817388522</v>
       </c>
       <c r="N39" t="n">
-        <v>159.9826297595649</v>
+        <v>181.4379639051043</v>
       </c>
       <c r="O39" t="n">
-        <v>204.2089871923422</v>
+        <v>210.3844418452475</v>
       </c>
       <c r="P39" t="n">
-        <v>271.3740693585943</v>
+        <v>279.5806536149469</v>
       </c>
       <c r="Q39" t="n">
-        <v>271.3740693585943</v>
+        <v>279.5806536149469</v>
       </c>
       <c r="R39" t="n">
-        <v>271.3740693585943</v>
+        <v>279.5806536149469</v>
       </c>
       <c r="S39" t="n">
-        <v>271.3740693585943</v>
+        <v>279.5806536149469</v>
       </c>
       <c r="T39" t="n">
-        <v>271.3740693585943</v>
+        <v>279.5806536149469</v>
       </c>
       <c r="U39" t="n">
-        <v>271.3740693585943</v>
+        <v>279.5806536149469</v>
       </c>
       <c r="V39" t="n">
-        <v>271.3740693585943</v>
+        <v>279.5806536149469</v>
       </c>
       <c r="W39" t="n">
-        <v>202.8452639650098</v>
+        <v>208.9794784596572</v>
       </c>
       <c r="X39" t="n">
-        <v>202.8452639650098</v>
+        <v>146.7939633828782</v>
       </c>
       <c r="Y39" t="n">
-        <v>202.8452639650098</v>
+        <v>146.7939633828782</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="C40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="D40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="E40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="F40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="G40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="H40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="I40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="J40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="K40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="L40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="M40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="N40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="O40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="P40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="R40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="S40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="T40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="U40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="V40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="W40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="X40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.427481387171886</v>
+        <v>5.591613072298937</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>43.98306913855064</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C41" t="n">
         <v>3.628603203930429</v>
@@ -7417,10 +7417,10 @@
         <v>3.628603203930429</v>
       </c>
       <c r="L41" t="n">
-        <v>32.76377984426642</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M41" t="n">
-        <v>77.66774449290548</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N41" t="n">
         <v>122.5717091415445</v>
@@ -7435,28 +7435,28 @@
         <v>181.4301601965215</v>
       </c>
       <c r="R41" t="n">
-        <v>181.4301601965215</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="S41" t="n">
-        <v>181.4301601965215</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="T41" t="n">
-        <v>181.4301601965215</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="U41" t="n">
-        <v>181.4301601965215</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="V41" t="n">
-        <v>181.4301601965215</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="W41" t="n">
-        <v>135.6144631771978</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="X41" t="n">
-        <v>135.6144631771978</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="Y41" t="n">
-        <v>89.79876615787424</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="42">
@@ -7493,16 +7493,16 @@
         <v>3.628603203930429</v>
       </c>
       <c r="K42" t="n">
-        <v>3.628603203930429</v>
+        <v>31.89429715218325</v>
       </c>
       <c r="L42" t="n">
-        <v>48.53256785256949</v>
+        <v>46.71826625060427</v>
       </c>
       <c r="M42" t="n">
-        <v>93.43653250120855</v>
+        <v>91.62223089924333</v>
       </c>
       <c r="N42" t="n">
-        <v>138.3404971498476</v>
+        <v>136.5261955478824</v>
       </c>
       <c r="O42" t="n">
         <v>181.4301601965215</v>
@@ -7511,19 +7511,19 @@
         <v>181.4301601965215</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6735899157047</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R42" t="n">
-        <v>141.0756942619012</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="S42" t="n">
-        <v>141.0756942619012</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="T42" t="n">
-        <v>141.0756942619012</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="U42" t="n">
-        <v>141.0756942619012</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="V42" t="n">
         <v>141.0756942619012</v>
@@ -7532,10 +7532,10 @@
         <v>95.25999724257764</v>
       </c>
       <c r="X42" t="n">
-        <v>95.25999724257764</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="43">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.98306913855064</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="C44" t="n">
-        <v>43.98306913855064</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="D44" t="n">
-        <v>43.98306913855064</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E44" t="n">
-        <v>43.98306913855064</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F44" t="n">
         <v>3.628603203930429</v>
@@ -7654,16 +7654,16 @@
         <v>3.628603203930429</v>
       </c>
       <c r="L44" t="n">
-        <v>32.76377984426648</v>
+        <v>32.76377984426642</v>
       </c>
       <c r="M44" t="n">
-        <v>77.66774449290554</v>
+        <v>77.66774449290548</v>
       </c>
       <c r="N44" t="n">
-        <v>122.5717091415446</v>
+        <v>122.5717091415445</v>
       </c>
       <c r="O44" t="n">
-        <v>167.4756737901837</v>
+        <v>167.4756737901836</v>
       </c>
       <c r="P44" t="n">
         <v>181.4301601965215</v>
@@ -7681,19 +7681,19 @@
         <v>181.4301601965215</v>
       </c>
       <c r="U44" t="n">
-        <v>181.4301601965215</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="V44" t="n">
-        <v>181.4301601965215</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="W44" t="n">
-        <v>135.6144631771978</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="X44" t="n">
-        <v>135.6144631771978</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="Y44" t="n">
-        <v>89.79876615787424</v>
+        <v>49.44430022325403</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>67.04219587705748</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="C45" t="n">
-        <v>67.04219587705748</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="D45" t="n">
-        <v>67.04219587705748</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E45" t="n">
-        <v>67.04219587705748</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F45" t="n">
-        <v>67.04219587705748</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G45" t="n">
-        <v>67.04219587705748</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H45" t="n">
-        <v>21.22649885773388</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I45" t="n">
-        <v>21.22649885773388</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J45" t="n">
         <v>3.628603203930429</v>
@@ -7733,46 +7733,46 @@
         <v>3.628603203930429</v>
       </c>
       <c r="L45" t="n">
-        <v>48.53256785256949</v>
+        <v>17.84901081317951</v>
       </c>
       <c r="M45" t="n">
-        <v>93.43653250120855</v>
+        <v>62.75297546181857</v>
       </c>
       <c r="N45" t="n">
-        <v>138.3404971498476</v>
+        <v>107.6569401104576</v>
       </c>
       <c r="O45" t="n">
-        <v>181.4301601965215</v>
+        <v>136.6034180506009</v>
       </c>
       <c r="P45" t="n">
         <v>181.4301601965215</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.6735899157047</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R45" t="n">
-        <v>158.6735899157047</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="S45" t="n">
-        <v>158.6735899157047</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="T45" t="n">
-        <v>158.6735899157047</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="U45" t="n">
-        <v>158.6735899157047</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="V45" t="n">
-        <v>112.8578928963811</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="W45" t="n">
-        <v>67.04219587705748</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="X45" t="n">
-        <v>67.04219587705748</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="Y45" t="n">
-        <v>67.04219587705748</v>
+        <v>43.98306913855064</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="M46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="N46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="O46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="P46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Q46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="R46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="S46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="T46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="U46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="V46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y46" t="n">
-        <v>181.4301601965215</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>57.07593346819698</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M3" t="n">
-        <v>38.00954882322065</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N3" t="n">
-        <v>17.73005030863848</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O3" t="n">
-        <v>49.04422963853116</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P3" t="n">
-        <v>67.92252959633595</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8461,10 +8461,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>106.8026410616744</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N8" t="n">
-        <v>101.7149661658636</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O8" t="n">
         <v>99.00804712831379</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>50.41291927855465</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M9" t="n">
-        <v>30.23412553798408</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N9" t="n">
-        <v>9.748834705535785</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O9" t="n">
-        <v>41.74297661872455</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P9" t="n">
-        <v>62.06263035810451</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8695,19 +8695,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>79.27897249523147</v>
+        <v>96.6874241274368</v>
       </c>
       <c r="M11" t="n">
-        <v>38.13372987968438</v>
+        <v>56.57358358590969</v>
       </c>
       <c r="N11" t="n">
-        <v>31.46180477983029</v>
+        <v>50.06644213083294</v>
       </c>
       <c r="O11" t="n">
-        <v>35.76093267816061</v>
+        <v>67.55072419496852</v>
       </c>
       <c r="P11" t="n">
-        <v>83.66766412458549</v>
+        <v>77.91224762987054</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8771,10 +8771,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>40.20975561493427</v>
+        <v>45.22059263733766</v>
       </c>
       <c r="L12" t="n">
-        <v>13.69345016832925</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>6.497881171859127</v>
       </c>
       <c r="P12" t="n">
-        <v>5.093443300258059</v>
+        <v>48.51399140265607</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8932,19 +8932,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>78.09760414750606</v>
+        <v>95.73419874924124</v>
       </c>
       <c r="M14" t="n">
-        <v>38.13372987968438</v>
+        <v>54.85808866381061</v>
       </c>
       <c r="N14" t="n">
-        <v>31.46180477983035</v>
+        <v>48.22916196424856</v>
       </c>
       <c r="O14" t="n">
-        <v>51.03774184036882</v>
+        <v>65.90488099197324</v>
       </c>
       <c r="P14" t="n">
-        <v>69.57222331010286</v>
+        <v>71.74845690798918</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9008,10 +9008,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>40.20975561493429</v>
+        <v>55.76110039992001</v>
       </c>
       <c r="L15" t="n">
-        <v>13.69345016832928</v>
+        <v>30.69996842220138</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>5.093443300258059</v>
+        <v>6.639653553646838</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9169,16 +9169,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>101.7649497857497</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>60.61970717020259</v>
+        <v>76.73838061312765</v>
       </c>
       <c r="N17" t="n">
-        <v>53.94778207034855</v>
+        <v>70.06645551327355</v>
       </c>
       <c r="O17" t="n">
-        <v>57.33838563370853</v>
+        <v>82.0975069891436</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9245,22 +9245,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>40.20975561493429</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>53.47946924949798</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>19.74482507477482</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>22.48597729051824</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="P18" t="n">
-        <v>46.73165027172828</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9406,16 +9406,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>85.57961628857123</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>60.61970717020256</v>
+        <v>76.73838061312765</v>
       </c>
       <c r="N20" t="n">
-        <v>53.94778207034852</v>
+        <v>62.52156992860529</v>
       </c>
       <c r="O20" t="n">
-        <v>73.523719130887</v>
+        <v>89.64239257381212</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9482,19 +9482,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>37.36079580657295</v>
+        <v>44.6730883159367</v>
       </c>
       <c r="M21" t="n">
-        <v>4.277411164897295</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>22.48597729051824</v>
+        <v>38.60465073344329</v>
       </c>
       <c r="P21" t="n">
         <v>5.093443300258059</v>
@@ -9646,13 +9646,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>84.60094559083478</v>
+        <v>86.10403516762941</v>
       </c>
       <c r="N23" t="n">
-        <v>77.92902049098069</v>
+        <v>79.43211006777531</v>
       </c>
       <c r="O23" t="n">
-        <v>97.50495755151917</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9719,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>61.3420342272051</v>
+        <v>11.30114324318629</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>31.85163184501997</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>5.913409030945068</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>80.79952561761377</v>
+        <v>82.30261519440836</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9883,13 +9883,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>84.60094559083478</v>
+        <v>86.10403516762941</v>
       </c>
       <c r="N26" t="n">
-        <v>77.92902049098069</v>
+        <v>79.43211006777531</v>
       </c>
       <c r="O26" t="n">
-        <v>97.50495755151917</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>83.66766412458549</v>
@@ -9956,19 +9956,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>61.3420342272051</v>
+        <v>62.84512380399974</v>
       </c>
       <c r="M27" t="n">
-        <v>30.34854226822533</v>
+        <v>31.85163184501997</v>
       </c>
       <c r="N27" t="n">
-        <v>4.803733368925066</v>
+        <v>9.365654554501759</v>
       </c>
       <c r="O27" t="n">
-        <v>46.46721571115037</v>
+        <v>16.29953677883515</v>
       </c>
       <c r="P27" t="n">
         <v>5.093443300258059</v>
@@ -10120,13 +10120,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>84.60094559083477</v>
+        <v>86.10403516762941</v>
       </c>
       <c r="N29" t="n">
-        <v>77.92902049098068</v>
+        <v>79.43211006777531</v>
       </c>
       <c r="O29" t="n">
-        <v>97.50495755151915</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10193,22 +10193,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>62.84512380399974</v>
       </c>
       <c r="M30" t="n">
-        <v>30.34854226822533</v>
+        <v>31.85163184501997</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>9.365654554501759</v>
       </c>
       <c r="O30" t="n">
-        <v>46.46721571115039</v>
+        <v>16.29953677883515</v>
       </c>
       <c r="P30" t="n">
-        <v>71.23921089638823</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10357,13 +10357,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>84.60094559083478</v>
+        <v>86.10403516762941</v>
       </c>
       <c r="N32" t="n">
-        <v>77.92902049098069</v>
+        <v>79.43211006777531</v>
       </c>
       <c r="O32" t="n">
-        <v>97.50495755151917</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>83.66766412458549</v>
@@ -10430,22 +10430,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>20.78822754699985</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>46.46721571115037</v>
+        <v>43.15277508820625</v>
       </c>
       <c r="P33" t="n">
-        <v>80.79952561761377</v>
+        <v>82.30261519440836</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10594,13 +10594,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>76.73838061312765</v>
+        <v>84.60094559083478</v>
       </c>
       <c r="N35" t="n">
-        <v>70.06645551327355</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O35" t="n">
-        <v>82.0975069891436</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10667,19 +10667,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L36" t="n">
-        <v>53.47946924949798</v>
+        <v>61.34203422720512</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>4.803733368925094</v>
       </c>
       <c r="O36" t="n">
-        <v>29.79826979988189</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P36" t="n">
         <v>5.093443300258059</v>
@@ -10831,16 +10831,16 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>76.73838061312765</v>
+        <v>78.79002667721579</v>
       </c>
       <c r="N38" t="n">
-        <v>70.06645551327355</v>
+        <v>66.54196726631322</v>
       </c>
       <c r="O38" t="n">
-        <v>89.64239257381203</v>
+        <v>91.69403863790018</v>
       </c>
       <c r="P38" t="n">
-        <v>76.12277853991709</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10907,7 +10907,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>21.50626511152753</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>15.43422170973133</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>72.93696063990666</v>
+        <v>74.98860670399478</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11062,16 +11062,16 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L41" t="n">
-        <v>79.46957724290091</v>
+        <v>95.39764593815653</v>
       </c>
       <c r="M41" t="n">
         <v>54.25240332260944</v>
       </c>
       <c r="N41" t="n">
-        <v>47.58047822275535</v>
+        <v>31.65240952749973</v>
       </c>
       <c r="O41" t="n">
         <v>67.15641528329382</v>
@@ -11141,10 +11141,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>30.99349195897977</v>
+        <v>0.6096580698706511</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>14.28604556215212</v>
+        <v>16.11867344292506</v>
       </c>
       <c r="P42" t="n">
         <v>5.093443300258059</v>
@@ -11302,16 +11302,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>79.46957724290102</v>
+        <v>79.46957724290091</v>
       </c>
       <c r="M44" t="n">
         <v>54.25240332260944</v>
       </c>
       <c r="N44" t="n">
-        <v>47.5804782227554</v>
+        <v>47.58047822275535</v>
       </c>
       <c r="O44" t="n">
-        <v>67.15641528329388</v>
+        <v>67.15641528329382</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11378,10 +11378,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>40.20975561493429</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L45" t="n">
-        <v>30.9934919589798</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>14.28604556215215</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>5.093443300258059</v>
+        <v>50.37298082138992</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22573,10 +22573,10 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K2" t="n">
-        <v>78.22308851520961</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L2" t="n">
-        <v>38.49084836766585</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,10 +22585,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.40184904719004</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P2" t="n">
-        <v>74.33416843326191</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q2" t="n">
         <v>134.6151832766775</v>
@@ -22652,7 +22652,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K3" t="n">
-        <v>24.57889804244016</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.52858488856606</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R3" t="n">
         <v>159.5976691093343</v>
@@ -22731,22 +22731,22 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K4" t="n">
-        <v>95.63058149505841</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L4" t="n">
-        <v>71.46654840866277</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M4" t="n">
-        <v>68.66533643318368</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N4" t="n">
-        <v>56.06123914516951</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O4" t="n">
-        <v>80.66114959698193</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P4" t="n">
-        <v>98.35025284028561</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q4" t="n">
         <v>157.5243583765053</v>
@@ -23035,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.2799129738437</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H8" t="n">
-        <v>350.6772306225875</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I8" t="n">
-        <v>257.1144787449911</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J8" t="n">
-        <v>109.603710850781</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K8" t="n">
-        <v>70.92743225431309</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L8" t="n">
-        <v>29.43994164996747</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,25 +23059,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>16.73832887716262</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P8" t="n">
-        <v>66.08657754158423</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q8" t="n">
-        <v>128.421585996378</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R8" t="n">
-        <v>215.8989072651624</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S8" t="n">
-        <v>237.5310928142746</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T8" t="n">
-        <v>219.7785224684532</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7967808487065</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.0681189810912</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H9" t="n">
-        <v>138.2636984700766</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I9" t="n">
-        <v>118.7808315368449</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J9" t="n">
-        <v>86.4799664770503</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K9" t="n">
-        <v>19.62359669065627</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.61139743325144</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R9" t="n">
-        <v>157.692374111484</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S9" t="n">
-        <v>209.0097831898551</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T9" t="n">
-        <v>230.3095373220754</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6530513549813</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.2789429537837</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H10" t="n">
-        <v>167.973816967188</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I10" t="n">
-        <v>169.0756193216474</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J10" t="n">
-        <v>135.4307965393793</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K10" t="n">
-        <v>92.64156330930646</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L10" t="n">
-        <v>67.64163421384373</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M10" t="n">
-        <v>64.63250070729003</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N10" t="n">
-        <v>52.12429523900656</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O10" t="n">
-        <v>77.0247446868042</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P10" t="n">
-        <v>95.23868023126809</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q10" t="n">
-        <v>155.3700667873847</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R10" t="n">
-        <v>223.0571032180092</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S10" t="n">
-        <v>244.4685908073183</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T10" t="n">
-        <v>218.2770376930819</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U10" t="n">
-        <v>291.222010617111</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23266,25 +23266,25 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E11" t="n">
-        <v>359.9585549362873</v>
+        <v>326.9329808933778</v>
       </c>
       <c r="F11" t="n">
-        <v>399.146417573369</v>
+        <v>361.6514425019458</v>
       </c>
       <c r="G11" t="n">
-        <v>395.9687301059741</v>
+        <v>421.7803206960554</v>
       </c>
       <c r="H11" t="n">
-        <v>315.7279540200221</v>
+        <v>345.5607812076884</v>
       </c>
       <c r="I11" t="n">
-        <v>206.379156004557</v>
+        <v>237.8539474555592</v>
       </c>
       <c r="J11" t="n">
-        <v>33.04016118063683</v>
+        <v>67.20144076384955</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>7.377421048604589</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.2082294730605</v>
+        <v>74.47124040837096</v>
       </c>
       <c r="R11" t="n">
-        <v>180.8732471227138</v>
+        <v>184.5163938455455</v>
       </c>
       <c r="S11" t="n">
-        <v>224.8250298051639</v>
+        <v>226.1466337841746</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3376759156334</v>
+        <v>217.5915572724352</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7521737158166</v>
+        <v>211.2618383950602</v>
       </c>
       <c r="V11" t="n">
-        <v>313.3044420010231</v>
+        <v>275.8094669295999</v>
       </c>
       <c r="W11" t="n">
         <v>325.3917254792934</v>
@@ -23342,7 +23342,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D12" t="n">
-        <v>142.8600757733069</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E12" t="n">
         <v>187.4605452976028</v>
@@ -23351,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7697824785144</v>
+        <v>160.800813546801</v>
       </c>
       <c r="H12" t="n">
-        <v>135.3823959320322</v>
+        <v>135.682090723116</v>
       </c>
       <c r="I12" t="n">
-        <v>82.75556438611709</v>
+        <v>109.5775523299235</v>
       </c>
       <c r="J12" t="n">
-        <v>29.05484284449857</v>
+        <v>61.22546489790466</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.52900457800858</v>
+        <v>26.49009322455851</v>
       </c>
       <c r="R12" t="n">
-        <v>109.9304744768696</v>
+        <v>103.6010142689552</v>
       </c>
       <c r="S12" t="n">
-        <v>203.4683135038341</v>
+        <v>166.5497269157169</v>
       </c>
       <c r="T12" t="n">
-        <v>229.1070318577418</v>
+        <v>229.232108839125</v>
       </c>
       <c r="U12" t="n">
-        <v>249.633423953496</v>
+        <v>249.6354654711465</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23402,10 +23402,10 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X12" t="n">
-        <v>230.033063710963</v>
+        <v>197.0074896680534</v>
       </c>
       <c r="Y12" t="n">
-        <v>242.8962664135933</v>
+        <v>205.4012913421701</v>
       </c>
     </row>
     <row r="13">
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.028827651796</v>
+        <v>169.0548430570463</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7500645549697</v>
+        <v>165.9813651580137</v>
       </c>
       <c r="I13" t="n">
-        <v>161.5539700582341</v>
+        <v>162.3363242452173</v>
       </c>
       <c r="J13" t="n">
-        <v>117.7476446888457</v>
+        <v>119.5869338400453</v>
       </c>
       <c r="K13" t="n">
-        <v>63.58271276927572</v>
+        <v>66.60522985199785</v>
       </c>
       <c r="L13" t="n">
-        <v>30.45631013468386</v>
+        <v>34.32409138435817</v>
       </c>
       <c r="M13" t="n">
-        <v>25.42579023297466</v>
+        <v>29.50382325780861</v>
       </c>
       <c r="N13" t="n">
-        <v>13.84983270846368</v>
+        <v>17.83089922281904</v>
       </c>
       <c r="O13" t="n">
-        <v>41.67208363857272</v>
+        <v>45.34924291886722</v>
       </c>
       <c r="P13" t="n">
-        <v>64.98837134358662</v>
+        <v>68.13481635677405</v>
       </c>
       <c r="Q13" t="n">
-        <v>134.42632090912</v>
+        <v>136.6047563433104</v>
       </c>
       <c r="R13" t="n">
-        <v>211.8110097304511</v>
+        <v>212.9807569519803</v>
       </c>
       <c r="S13" t="n">
-        <v>240.1097632263137</v>
+        <v>240.5631407887221</v>
       </c>
       <c r="T13" t="n">
-        <v>217.2083632209524</v>
+        <v>217.3195199524767</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2097869863799</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23503,25 +23503,25 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E14" t="n">
-        <v>359.9585549362873</v>
+        <v>316.6526609512451</v>
       </c>
       <c r="F14" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.7223238127198</v>
+        <v>421.7374574335881</v>
       </c>
       <c r="H14" t="n">
-        <v>344.9668206262274</v>
+        <v>301.8159138359026</v>
       </c>
       <c r="I14" t="n">
-        <v>235.6180226107624</v>
+        <v>236.2014615292871</v>
       </c>
       <c r="J14" t="n">
-        <v>62.27902778684216</v>
+        <v>63.56347494101226</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1.925053325524885</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23539,31 +23539,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.96936286685522</v>
+        <v>69.84249027360116</v>
       </c>
       <c r="R14" t="n">
-        <v>180.8732471227138</v>
+        <v>181.8238844345816</v>
       </c>
       <c r="S14" t="n">
-        <v>199.0714360984183</v>
+        <v>225.1698871907001</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3376759156334</v>
+        <v>217.4039233409844</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7533844054861</v>
       </c>
       <c r="V14" t="n">
-        <v>313.3044420010231</v>
+        <v>275.1606105789979</v>
       </c>
       <c r="W14" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X14" t="n">
-        <v>319.5780126973076</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y14" t="n">
-        <v>348.6901097889768</v>
+        <v>334.6230824101399</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>188.0127573810344</v>
+        <v>149.8689259590093</v>
       </c>
       <c r="C15" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D15" t="n">
-        <v>142.8600757733069</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E15" t="n">
         <v>187.4605452976028</v>
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7697824785144</v>
+        <v>160.777879679529</v>
       </c>
       <c r="H15" t="n">
-        <v>135.3823959320322</v>
+        <v>135.460597847094</v>
       </c>
       <c r="I15" t="n">
-        <v>108.5091580928627</v>
+        <v>108.787943303233</v>
       </c>
       <c r="J15" t="n">
-        <v>55.06912032196686</v>
+        <v>59.05871737638368</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,22 +23618,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>23.5626051847114</v>
       </c>
       <c r="R15" t="n">
-        <v>139.169341083075</v>
+        <v>139.6720778267695</v>
       </c>
       <c r="S15" t="n">
-        <v>174.2294468976288</v>
+        <v>203.6187154612759</v>
       </c>
       <c r="T15" t="n">
-        <v>229.1070318577418</v>
+        <v>185.8337752750346</v>
       </c>
       <c r="U15" t="n">
-        <v>249.633423953496</v>
+        <v>206.3280626790469</v>
       </c>
       <c r="V15" t="n">
-        <v>220.0610585739671</v>
+        <v>205.9940311951302</v>
       </c>
       <c r="W15" t="n">
         <v>283.2492567629311</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.028827651796</v>
+        <v>169.035616073124</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7500645549697</v>
+        <v>165.8104197918678</v>
       </c>
       <c r="I16" t="n">
-        <v>161.5539700582341</v>
+        <v>161.7581164014437</v>
       </c>
       <c r="J16" t="n">
-        <v>117.7476446888457</v>
+        <v>118.227586076736</v>
       </c>
       <c r="K16" t="n">
-        <v>63.58271276927573</v>
+        <v>64.37140390174817</v>
       </c>
       <c r="L16" t="n">
-        <v>30.45631013468387</v>
+        <v>31.46556324739548</v>
       </c>
       <c r="M16" t="n">
-        <v>25.42579023297469</v>
+        <v>26.48990613260082</v>
       </c>
       <c r="N16" t="n">
-        <v>13.84983270846368</v>
+        <v>14.88864631041271</v>
       </c>
       <c r="O16" t="n">
-        <v>41.67208363857273</v>
+        <v>42.63159613682636</v>
       </c>
       <c r="P16" t="n">
-        <v>64.98837134358664</v>
+        <v>65.80940004674888</v>
       </c>
       <c r="Q16" t="n">
-        <v>134.42632090912</v>
+        <v>134.9947586259591</v>
       </c>
       <c r="R16" t="n">
-        <v>211.8110097304511</v>
+        <v>212.1162418385269</v>
       </c>
       <c r="S16" t="n">
-        <v>240.1097632263137</v>
+        <v>240.2280668961846</v>
       </c>
       <c r="T16" t="n">
-        <v>217.2083632209524</v>
+        <v>217.2373682938994</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2087382418023</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23746,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>376.1630813084857</v>
+        <v>353.8788064730712</v>
       </c>
       <c r="H17" t="n">
-        <v>293.2419767295039</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I17" t="n">
-        <v>183.8931787140388</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
-        <v>10.55418389011865</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R17" t="n">
         <v>180.8732471227138</v>
@@ -23788,16 +23788,16 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7521737158166</v>
+        <v>188.9956036430542</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3917254792934</v>
+        <v>257.5482081396448</v>
       </c>
       <c r="X17" t="n">
-        <v>348.8168793035129</v>
+        <v>280.9733619638644</v>
       </c>
       <c r="Y17" t="n">
         <v>377.9289763951821</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>188.0127573810344</v>
+        <v>120.1692400413859</v>
       </c>
       <c r="C18" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D18" t="n">
-        <v>172.0989423795122</v>
+        <v>104.2554250398636</v>
       </c>
       <c r="E18" t="n">
         <v>187.4605452976028</v>
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>115.2105399742804</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H18" t="n">
-        <v>83.6575520353087</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I18" t="n">
-        <v>56.78431419613921</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J18" t="n">
-        <v>6.568865553980373</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,13 +23855,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R18" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S18" t="n">
-        <v>203.4683135038341</v>
+        <v>143.7117434310717</v>
       </c>
       <c r="T18" t="n">
         <v>229.1070318577418</v>
@@ -23879,7 +23879,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y18" t="n">
-        <v>242.8962664135933</v>
+        <v>175.0527490739448</v>
       </c>
     </row>
     <row r="19">
@@ -23916,22 +23916,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K19" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L19" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M19" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N19" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O19" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P19" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q19" t="n">
         <v>134.42632090912</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>318.9970850928291</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C20" t="n">
-        <v>333.5971194742085</v>
+        <v>265.7536021345599</v>
       </c>
       <c r="D20" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>308.2337110395638</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
-        <v>399.146417573369</v>
+        <v>339.3898475006066</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7223238127198</v>
+        <v>353.8788064730712</v>
       </c>
       <c r="H20" t="n">
         <v>344.9668206262274</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.20822947306053</v>
+        <v>0.3647121334119561</v>
       </c>
       <c r="R20" t="n">
         <v>180.8732471227138</v>
@@ -24025,7 +24025,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U20" t="n">
-        <v>197.0273298190931</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24037,7 +24037,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
-        <v>326.2041324984586</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
-        <v>120.3740984827887</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
         <v>187.4605452976028</v>
@@ -24098,25 +24098,25 @@
         <v>139.169341083075</v>
       </c>
       <c r="S21" t="n">
-        <v>203.4683135038341</v>
+        <v>135.6247961641856</v>
       </c>
       <c r="T21" t="n">
-        <v>229.1070318577418</v>
+        <v>161.2635145180932</v>
       </c>
       <c r="U21" t="n">
-        <v>249.633423953496</v>
+        <v>181.7899066138474</v>
       </c>
       <c r="V21" t="n">
-        <v>203.7406826759383</v>
+        <v>189.54335510741</v>
       </c>
       <c r="W21" t="n">
-        <v>231.5244128662076</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X21" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
-        <v>191.1714225168698</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="22">
@@ -24208,7 +24208,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C23" t="n">
-        <v>257.8910371568527</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
         <v>319.1317556432476</v>
@@ -24250,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.2082294730605</v>
+        <v>1.616046615668324</v>
       </c>
       <c r="R23" t="n">
         <v>180.8732471227138</v>
       </c>
       <c r="S23" t="n">
-        <v>224.8250298051639</v>
+        <v>147.6158579110136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3376759156334</v>
+        <v>140.1285040214831</v>
       </c>
       <c r="U23" t="n">
-        <v>173.0460913984609</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V23" t="n">
-        <v>237.5983596836674</v>
+        <v>236.0952701068728</v>
       </c>
       <c r="W23" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
-        <v>282.134961998386</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
         <v>377.9289763951821</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>188.0127573810344</v>
+        <v>110.8035854868841</v>
       </c>
       <c r="C24" t="n">
         <v>203.8424276152394</v>
@@ -24293,13 +24293,13 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E24" t="n">
-        <v>120.7786279924759</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F24" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7697824785144</v>
+        <v>83.5606105843641</v>
       </c>
       <c r="H24" t="n">
         <v>135.3823959320322</v>
@@ -24341,13 +24341,13 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U24" t="n">
-        <v>173.9273416361403</v>
+        <v>181.6275853491284</v>
       </c>
       <c r="V24" t="n">
-        <v>173.5938428628167</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W24" t="n">
-        <v>207.5431744455754</v>
+        <v>206.0400848687808</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>364.5563275970632</v>
+        <v>287.3471557029128</v>
       </c>
       <c r="C26" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
-        <v>319.1317556432476</v>
+        <v>241.9225837490973</v>
       </c>
       <c r="E26" t="n">
         <v>359.9585549362873</v>
@@ -24457,16 +24457,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>346.0162414953641</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H26" t="n">
         <v>344.9668206262274</v>
       </c>
       <c r="I26" t="n">
-        <v>235.6180226107624</v>
+        <v>158.408850716612</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R26" t="n">
-        <v>105.1671648053581</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S26" t="n">
-        <v>212.924287442584</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T26" t="n">
         <v>217.3376759156334</v>
@@ -24511,7 +24511,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
-        <v>377.9289763951821</v>
+        <v>311.33679353779</v>
       </c>
     </row>
     <row r="27">
@@ -24533,16 +24533,16 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
-        <v>173.9843481253239</v>
+        <v>128.5075140989649</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7697824785144</v>
+        <v>83.5606105843641</v>
       </c>
       <c r="H27" t="n">
-        <v>59.67631361467652</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I27" t="n">
-        <v>41.82724078773579</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J27" t="n">
         <v>58.29370945070387</v>
@@ -24566,13 +24566,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>63.46325876571923</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S27" t="n">
-        <v>203.4683135038341</v>
+        <v>126.2591416096838</v>
       </c>
       <c r="T27" t="n">
         <v>229.1070318577418</v>
@@ -24584,13 +24584,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2492567629311</v>
+        <v>206.0400848687808</v>
       </c>
       <c r="X27" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
-        <v>167.1901840962377</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="28">
@@ -24685,25 +24685,25 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>319.1317556432476</v>
+        <v>241.9225837490973</v>
       </c>
       <c r="E29" t="n">
-        <v>359.9585549362873</v>
+        <v>282.749383042137</v>
       </c>
       <c r="F29" t="n">
-        <v>399.146417573369</v>
+        <v>321.9372456792187</v>
       </c>
       <c r="G29" t="n">
         <v>421.7223238127198</v>
       </c>
       <c r="H29" t="n">
-        <v>333.0660782636475</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I29" t="n">
-        <v>159.9119402934066</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R29" t="n">
-        <v>105.1671648053581</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S29" t="n">
         <v>224.8250298051639</v>
@@ -24748,7 +24748,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
-        <v>377.9289763951821</v>
+        <v>311.33679353779</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
-        <v>137.1605103101125</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D30" t="n">
         <v>172.0989423795122</v>
@@ -24773,7 +24773,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7697824785144</v>
+        <v>115.2929484521554</v>
       </c>
       <c r="H30" t="n">
         <v>135.3823959320322</v>
@@ -24803,16 +24803,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>63.46325876571923</v>
+        <v>61.9601691889246</v>
       </c>
       <c r="S30" t="n">
-        <v>203.4683135038341</v>
+        <v>126.2591416096838</v>
       </c>
       <c r="T30" t="n">
-        <v>229.1070318577418</v>
+        <v>151.8978599635914</v>
       </c>
       <c r="U30" t="n">
         <v>249.633423953496</v>
@@ -24821,10 +24821,10 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W30" t="n">
-        <v>207.5431744455754</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X30" t="n">
-        <v>154.3269813936073</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
         <v>242.8962664135933</v>
@@ -24925,16 +24925,16 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>284.2524726189316</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>323.4403352560133</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
         <v>421.7223238127198</v>
       </c>
       <c r="H32" t="n">
-        <v>344.9668206262274</v>
+        <v>269.3736953477454</v>
       </c>
       <c r="I32" t="n">
         <v>235.6180226107624</v>
@@ -24967,10 +24967,10 @@
         <v>180.8732471227138</v>
       </c>
       <c r="S32" t="n">
-        <v>224.8250298051639</v>
+        <v>147.6158579110136</v>
       </c>
       <c r="T32" t="n">
-        <v>143.1579057662113</v>
+        <v>140.1285040214831</v>
       </c>
       <c r="U32" t="n">
         <v>248.7521737158166</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>112.3066750636787</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C33" t="n">
         <v>203.8424276152394</v>
@@ -25013,7 +25013,7 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H33" t="n">
-        <v>68.70047862690531</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I33" t="n">
         <v>108.5091580928627</v>
@@ -25043,22 +25043,22 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R33" t="n">
-        <v>139.1693410830749</v>
+        <v>71.16350247870734</v>
       </c>
       <c r="S33" t="n">
-        <v>203.4683135038341</v>
+        <v>126.2591416096838</v>
       </c>
       <c r="T33" t="n">
-        <v>153.4009495403861</v>
+        <v>151.8978599635914</v>
       </c>
       <c r="U33" t="n">
         <v>249.633423953496</v>
       </c>
       <c r="V33" t="n">
-        <v>173.5938428628167</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2492567629311</v>
+        <v>206.0400848687808</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
@@ -25168,7 +25168,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7223238127198</v>
+        <v>355.0404065075929</v>
       </c>
       <c r="H35" t="n">
         <v>344.9668206262274</v>
@@ -25204,22 +25204,22 @@
         <v>180.8732471227138</v>
       </c>
       <c r="S35" t="n">
-        <v>224.8250298051639</v>
+        <v>149.1189474878082</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3376759156334</v>
+        <v>141.6315935982777</v>
       </c>
       <c r="U35" t="n">
-        <v>180.908656376168</v>
+        <v>173.0460913984609</v>
       </c>
       <c r="V35" t="n">
-        <v>245.4609246613745</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W35" t="n">
-        <v>257.5482081396448</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
-        <v>289.0603092307505</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
         <v>377.9289763951821</v>
@@ -25241,7 +25241,7 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E36" t="n">
-        <v>150.232979802849</v>
+        <v>120.7786279924759</v>
       </c>
       <c r="F36" t="n">
         <v>173.9843481253239</v>
@@ -25277,16 +25277,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R36" t="n">
-        <v>71.32582374342635</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S36" t="n">
-        <v>135.6247961641856</v>
+        <v>127.7622311864784</v>
       </c>
       <c r="T36" t="n">
-        <v>161.2635145180932</v>
+        <v>153.4009495403861</v>
       </c>
       <c r="U36" t="n">
         <v>249.633423953496</v>
@@ -25298,7 +25298,7 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X36" t="n">
-        <v>230.033063710963</v>
+        <v>154.3269813936073</v>
       </c>
       <c r="Y36" t="n">
         <v>242.8962664135933</v>
@@ -25438,22 +25438,22 @@
         <v>68.2082294730605</v>
       </c>
       <c r="R38" t="n">
-        <v>121.1166770499513</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S38" t="n">
-        <v>156.9815124655154</v>
+        <v>163.2613698791527</v>
       </c>
       <c r="T38" t="n">
-        <v>149.4941585759848</v>
+        <v>147.4425125118967</v>
       </c>
       <c r="U38" t="n">
-        <v>180.908656376168</v>
+        <v>178.8570103120799</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>325.3917254792934</v>
+        <v>255.4965620755567</v>
       </c>
       <c r="X38" t="n">
         <v>348.8168793035129</v>
@@ -25472,19 +25472,19 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>144.085857542477</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>119.6170279579543</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>106.1408307856753</v>
+        <v>104.0891847215872</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7697824785144</v>
+        <v>90.87461907477771</v>
       </c>
       <c r="H39" t="n">
         <v>135.3823959320322</v>
@@ -25532,10 +25532,10 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
-        <v>215.4057394232825</v>
+        <v>213.3540933591944</v>
       </c>
       <c r="X39" t="n">
-        <v>230.033063710963</v>
+        <v>168.4694037849517</v>
       </c>
       <c r="Y39" t="n">
         <v>242.8962664135933</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>319.1987875479328</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>293.6461981989344</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
@@ -25675,10 +25675,10 @@
         <v>68.2082294730605</v>
       </c>
       <c r="R41" t="n">
-        <v>180.8732471227138</v>
+        <v>135.5157070735834</v>
       </c>
       <c r="S41" t="n">
-        <v>224.8250298051639</v>
+        <v>179.4674897560336</v>
       </c>
       <c r="T41" t="n">
         <v>217.3376759156334</v>
@@ -25696,7 +25696,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>332.5714363460518</v>
+        <v>337.9780551199081</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>142.6552173319041</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
         <v>203.8424276152394</v>
@@ -25751,10 +25751,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R42" t="n">
-        <v>121.7474243858095</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S42" t="n">
         <v>203.4683135038341</v>
@@ -25766,13 +25766,13 @@
         <v>249.633423953496</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>209.3490039048984</v>
       </c>
       <c r="W42" t="n">
         <v>237.8917167138007</v>
       </c>
       <c r="X42" t="n">
-        <v>230.033063710963</v>
+        <v>184.6755236618326</v>
       </c>
       <c r="Y42" t="n">
         <v>197.538726364463</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>319.1987875479328</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>319.1317556432476</v>
+        <v>273.7742155941173</v>
       </c>
       <c r="E44" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>359.195496298095</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
         <v>421.7223238127198</v>
@@ -25888,7 +25888,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J44" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R44" t="n">
         <v>180.8732471227138</v>
@@ -25921,19 +25921,19 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7521737158166</v>
+        <v>203.3946336666862</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>267.9469019518928</v>
       </c>
       <c r="W44" t="n">
-        <v>280.034185430163</v>
+        <v>285.4408042040193</v>
       </c>
       <c r="X44" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>332.5714363460518</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D45" t="n">
-        <v>172.0989423795122</v>
+        <v>132.1480211042382</v>
       </c>
       <c r="E45" t="n">
         <v>187.4605452976028</v>
@@ -25961,13 +25961,13 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H45" t="n">
-        <v>90.02485588290185</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I45" t="n">
         <v>108.5091580928627</v>
       </c>
       <c r="J45" t="n">
-        <v>40.87179275343847</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,10 +25988,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R45" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S45" t="n">
         <v>203.4683135038341</v>
@@ -26000,7 +26000,7 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U45" t="n">
-        <v>249.633423953496</v>
+        <v>204.2758839043657</v>
       </c>
       <c r="V45" t="n">
         <v>203.942385131042</v>
@@ -26049,22 +26049,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K46" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L46" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M46" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N46" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O46" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P46" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q46" t="n">
         <v>134.42632090912</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>378263.6522903328</v>
+        <v>371323.0471480106</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>447168.2513328856</v>
+        <v>449235.5318659999</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>447168.2513328856</v>
+        <v>455892.5597705999</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>462658.2311117077</v>
+        <v>473835.4338827772</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>462658.2311117076</v>
+        <v>473835.4338827773</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>479337.5933723036</v>
+        <v>480223.1232879602</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>479337.5933723036</v>
+        <v>480223.1232879604</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>479337.5933723036</v>
+        <v>480223.1232879604</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>479337.5933723037</v>
+        <v>480223.1232879604</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473835.433882777</v>
+        <v>479337.5933723036</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473835.4338827772</v>
+        <v>475271.1592335602</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>458242.9393408581</v>
+        <v>458242.939340858</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>458242.9393408581</v>
+        <v>458242.939340858</v>
       </c>
     </row>
   </sheetData>
@@ -26319,40 +26319,40 @@
         <v>115221.7268207487</v>
       </c>
       <c r="D2" t="n">
-        <v>117598.306720002</v>
+        <v>115221.7268207487</v>
       </c>
       <c r="E2" t="n">
-        <v>141002.404997832</v>
+        <v>141273.122674701</v>
       </c>
       <c r="F2" t="n">
-        <v>141002.404997832</v>
+        <v>143470.1110875778</v>
       </c>
       <c r="G2" t="n">
-        <v>145527.0216555217</v>
+        <v>148770.412743997</v>
       </c>
       <c r="H2" t="n">
-        <v>145527.0216555217</v>
+        <v>148770.412743997</v>
       </c>
       <c r="I2" t="n">
-        <v>150352.5139802775</v>
+        <v>150607.1409093933</v>
       </c>
       <c r="J2" t="n">
+        <v>150607.1409093933</v>
+      </c>
+      <c r="K2" t="n">
+        <v>150607.1409093933</v>
+      </c>
+      <c r="L2" t="n">
+        <v>150607.1409093933</v>
+      </c>
+      <c r="M2" t="n">
         <v>150352.5139802774</v>
       </c>
-      <c r="K2" t="n">
-        <v>150352.5139802775</v>
-      </c>
-      <c r="L2" t="n">
-        <v>150352.5139802774</v>
-      </c>
-      <c r="M2" t="n">
-        <v>148770.412743997</v>
-      </c>
       <c r="N2" t="n">
-        <v>148770.4127439969</v>
+        <v>149183.2438981569</v>
       </c>
       <c r="O2" t="n">
-        <v>144245.7960863071</v>
+        <v>144245.7960863072</v>
       </c>
       <c r="P2" t="n">
         <v>144245.7960863071</v>
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12218.31441725252</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>120162.3225111338</v>
+        <v>122498.9563375701</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10092.89091351613</v>
       </c>
       <c r="G3" t="n">
-        <v>6163.069085671684</v>
+        <v>9652.235127293532</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6377.11490205293</v>
+        <v>2490.524224787662</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5327.059871028257</v>
+        <v>8969.321832803427</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>12102.3694127353</v>
       </c>
       <c r="D4" t="n">
-        <v>11633.63722209127</v>
+        <v>12102.3694127353</v>
       </c>
       <c r="E4" t="n">
-        <v>7593.704764299166</v>
+        <v>8822.965554581897</v>
       </c>
       <c r="F4" t="n">
-        <v>7593.70476429917</v>
+        <v>8634.769622569333</v>
       </c>
       <c r="G4" t="n">
-        <v>8993.820203393805</v>
+        <v>10070.95397532982</v>
       </c>
       <c r="H4" t="n">
-        <v>8993.820203393805</v>
+        <v>10070.95397532982</v>
       </c>
       <c r="I4" t="n">
+        <v>10738.98741023151</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10738.98741023151</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10738.98741023151</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10738.98741023151</v>
+      </c>
+      <c r="M4" t="n">
         <v>10646.37746104013</v>
       </c>
-      <c r="J4" t="n">
-        <v>10646.37746104013</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10646.37746104013</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10646.37746104013</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10070.95397532982</v>
-      </c>
       <c r="N4" t="n">
-        <v>10070.95397532982</v>
+        <v>10221.10412772776</v>
       </c>
       <c r="O4" t="n">
+        <v>8568.323773138178</v>
+      </c>
+      <c r="P4" t="n">
         <v>8568.32377313818</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8568.323773138183</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40422.05903150925</v>
+        <v>40422.05903150924</v>
       </c>
       <c r="C5" t="n">
         <v>40422.05903150925</v>
       </c>
       <c r="D5" t="n">
-        <v>40733.07596291871</v>
+        <v>40422.05903150924</v>
       </c>
       <c r="E5" t="n">
-        <v>11906.86567606057</v>
+        <v>12094.33447163753</v>
       </c>
       <c r="F5" t="n">
-        <v>11906.86567606057</v>
+        <v>12680.07509813033</v>
       </c>
       <c r="G5" t="n">
-        <v>13274.01309532408</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="H5" t="n">
-        <v>13274.01309532408</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="I5" t="n">
+        <v>14823.46023756763</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14823.46023756763</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14823.46023756763</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14823.46023756763</v>
+      </c>
+      <c r="M5" t="n">
         <v>14732.07239129852</v>
       </c>
-      <c r="J5" t="n">
-        <v>14732.07239129852</v>
-      </c>
-      <c r="K5" t="n">
-        <v>14732.07239129852</v>
-      </c>
-      <c r="L5" t="n">
-        <v>14732.07239129852</v>
-      </c>
-      <c r="M5" t="n">
-        <v>14254.02844065392</v>
-      </c>
       <c r="N5" t="n">
-        <v>14254.02844065392</v>
+        <v>14378.76852135048</v>
       </c>
       <c r="O5" t="n">
         <v>12886.88102139042</v>
       </c>
       <c r="P5" t="n">
-        <v>12886.88102139041</v>
+        <v>12886.88102139042</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237634.3094551344</v>
+        <v>-254676.6971430497</v>
       </c>
       <c r="C6" t="n">
-        <v>62697.29837650412</v>
+        <v>45654.91068858874</v>
       </c>
       <c r="D6" t="n">
-        <v>53013.27911773953</v>
+        <v>45654.91068858877</v>
       </c>
       <c r="E6" t="n">
-        <v>1339.512046338466</v>
+        <v>-17653.08632677146</v>
       </c>
       <c r="F6" t="n">
-        <v>121501.8345574723</v>
+        <v>96681.6574282013</v>
       </c>
       <c r="G6" t="n">
-        <v>117096.1192711322</v>
+        <v>99724.2596259366</v>
       </c>
       <c r="H6" t="n">
-        <v>123259.1883568038</v>
+        <v>109376.4947532301</v>
       </c>
       <c r="I6" t="n">
-        <v>118596.9492258859</v>
+        <v>107593.2762952819</v>
       </c>
       <c r="J6" t="n">
-        <v>124974.0641279388</v>
+        <v>110083.8005200696</v>
       </c>
       <c r="K6" t="n">
-        <v>124974.0641279388</v>
+        <v>110083.8005200696</v>
       </c>
       <c r="L6" t="n">
-        <v>124974.0641279388</v>
+        <v>110083.8005200696</v>
       </c>
       <c r="M6" t="n">
-        <v>119118.370456985</v>
+        <v>101028.871498957</v>
       </c>
       <c r="N6" t="n">
-        <v>124445.4303280132</v>
+        <v>109538.7198598343</v>
       </c>
       <c r="O6" t="n">
-        <v>122790.5912917786</v>
+        <v>107455.5017959549</v>
       </c>
       <c r="P6" t="n">
-        <v>122790.5912917785</v>
+        <v>107455.5017959549</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.6724326380389</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="C3" t="n">
         <v>311.6724326380389</v>
       </c>
       <c r="D3" t="n">
-        <v>325.9392643540693</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="E3" t="n">
+        <v>450.2128434538992</v>
+      </c>
+      <c r="F3" t="n">
+        <v>460.8750799926497</v>
+      </c>
+      <c r="G3" t="n">
         <v>464.6395681836371</v>
-      </c>
-      <c r="F3" t="n">
-        <v>464.639568183637</v>
-      </c>
-      <c r="G3" t="n">
-        <v>464.639568183637</v>
       </c>
       <c r="H3" t="n">
         <v>464.639568183637</v>
@@ -26779,7 +26779,7 @@
         <v>464.6395681836371</v>
       </c>
       <c r="P3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
     </row>
     <row r="4">
@@ -26798,34 +26798,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.23886660620531</v>
+        <v>37.49497507142323</v>
       </c>
       <c r="F4" t="n">
-        <v>29.23886660620531</v>
+        <v>43.30589398504222</v>
       </c>
       <c r="G4" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="H4" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="I4" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="J4" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="K4" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="L4" t="n">
+        <v>77.20917189415033</v>
+      </c>
+      <c r="M4" t="n">
         <v>75.70608231735571</v>
       </c>
-      <c r="M4" t="n">
-        <v>67.84351733964857</v>
-      </c>
       <c r="N4" t="n">
-        <v>67.84351733964857</v>
+        <v>69.89516340373672</v>
       </c>
       <c r="O4" t="n">
         <v>45.35754004913036</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.6724326380389</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14.26683171603047</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>138.7003038295678</v>
+        <v>138.5404108158604</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10.66223653875037</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.764488190987436</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.23886660620531</v>
+        <v>37.49497507142323</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>5.810918913618991</v>
       </c>
       <c r="G4" t="n">
-        <v>22.48597729051821</v>
+        <v>24.53762335460635</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.98123842063218</v>
+        <v>9.365654554501759</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>21.37630162849817</v>
+        <v>35.9918854946286</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>29.23886660620531</v>
+        <v>37.49497507142323</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.810918913618991</v>
       </c>
       <c r="O4" t="n">
-        <v>22.48597729051821</v>
+        <v>24.53762335460635</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I2" t="n">
-        <v>48.30452847950953</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J2" t="n">
         <v>106.3429472547246</v>
@@ -31074,13 +31074,13 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R2" t="n">
-        <v>78.70590330331341</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S2" t="n">
         <v>28.5517007386505</v>
       </c>
       <c r="T2" t="n">
-        <v>5.484808337177949</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U2" t="n">
         <v>0.1002363602453993</v>
@@ -31120,10 +31120,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H3" t="n">
-        <v>6.474553742160016</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I3" t="n">
         <v>23.08140185102458</v>
@@ -31138,7 +31138,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M3" t="n">
-        <v>169.8614757877312</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N3" t="n">
         <v>174.3572036132365</v>
@@ -31150,7 +31150,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.57466490091966</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R3" t="n">
         <v>41.62297128701962</v>
@@ -31202,31 +31202,31 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H4" t="n">
-        <v>4.996977690491839</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I4" t="n">
         <v>16.9018427404366</v>
       </c>
       <c r="J4" t="n">
-        <v>39.73568046927915</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K4" t="n">
-        <v>65.29792932973993</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L4" t="n">
-        <v>83.55886825184406</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M4" t="n">
-        <v>88.10111075373283</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N4" t="n">
-        <v>86.00626325567396</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O4" t="n">
-        <v>79.44070463370868</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97524661994208</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q4" t="n">
         <v>47.06253732834386</v>
@@ -31235,13 +31235,13 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S4" t="n">
-        <v>9.794689399460987</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T4" t="n">
         <v>2.40141054655538</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.310308600418368</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H8" t="n">
-        <v>13.41919795403461</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I8" t="n">
-        <v>50.51567231762918</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J8" t="n">
-        <v>111.2108045747586</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K8" t="n">
-        <v>166.6761676304681</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L8" t="n">
-        <v>206.7765244605218</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M8" t="n">
-        <v>230.0787250332119</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N8" t="n">
-        <v>233.8016393441506</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O8" t="n">
-        <v>220.7722581987405</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P8" t="n">
-        <v>188.424014625912</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q8" t="n">
-        <v>141.4985878734291</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R8" t="n">
-        <v>82.30867262103038</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S8" t="n">
-        <v>29.85865723203359</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T8" t="n">
-        <v>5.735875898331408</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1048246880334694</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7010769082332812</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H9" t="n">
-        <v>6.770926982147742</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I9" t="n">
-        <v>24.13795495452306</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J9" t="n">
-        <v>66.23639333444346</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K9" t="n">
-        <v>113.2085461860733</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L9" t="n">
-        <v>152.2228611495113</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M9" t="n">
-        <v>177.6368990729677</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N9" t="n">
-        <v>182.3384192163392</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O9" t="n">
-        <v>166.8040308812754</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P9" t="n">
-        <v>133.8749404853535</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.49185235623428</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R9" t="n">
-        <v>43.52826628486987</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S9" t="n">
-        <v>13.02219608056116</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T9" t="n">
-        <v>2.825831923975373</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04612348080482114</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5877593291630757</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H10" t="n">
-        <v>5.225714762922622</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I10" t="n">
-        <v>17.67552600792232</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J10" t="n">
-        <v>41.55458457182945</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K10" t="n">
-        <v>68.28694751549187</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L10" t="n">
-        <v>87.3837824466631</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M10" t="n">
-        <v>92.13394647962647</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N10" t="n">
-        <v>89.94320716183691</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O10" t="n">
-        <v>83.07710954388641</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P10" t="n">
-        <v>71.0868192289596</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.21682891746446</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R10" t="n">
-        <v>26.42779674582338</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S10" t="n">
-        <v>10.24304212732378</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T10" t="n">
-        <v>2.511335315514959</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03205959977253144</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.867897761542258</v>
+        <v>1.809900878206629</v>
       </c>
       <c r="H11" t="n">
-        <v>19.12960795039466</v>
+        <v>18.53564736893364</v>
       </c>
       <c r="I11" t="n">
-        <v>72.01212845185798</v>
+        <v>69.77620360706112</v>
       </c>
       <c r="J11" t="n">
-        <v>158.5354876386974</v>
+        <v>153.61307466169</v>
       </c>
       <c r="K11" t="n">
-        <v>237.6035998847812</v>
+        <v>230.2261788361766</v>
       </c>
       <c r="L11" t="n">
-        <v>294.7682760045802</v>
+        <v>285.6159328375928</v>
       </c>
       <c r="M11" t="n">
-        <v>327.9865028214073</v>
+        <v>317.8027575803999</v>
       </c>
       <c r="N11" t="n">
-        <v>333.2936673363893</v>
+        <v>322.9451384506045</v>
       </c>
       <c r="O11" t="n">
-        <v>314.7197589700534</v>
+        <v>304.9479365929373</v>
       </c>
       <c r="P11" t="n">
-        <v>268.6060329819789</v>
+        <v>260.2660086622112</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.7119443967467</v>
+        <v>195.4489334614362</v>
       </c>
       <c r="R11" t="n">
-        <v>117.334332763479</v>
+        <v>113.6911860406472</v>
       </c>
       <c r="S11" t="n">
-        <v>42.56472024114425</v>
+        <v>41.24311626213359</v>
       </c>
       <c r="T11" t="n">
-        <v>8.176722451151239</v>
+        <v>7.922841094349521</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1447920702565303</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9683823425234813</v>
       </c>
       <c r="H12" t="n">
-        <v>9.652229520192162</v>
+        <v>9.352534729108362</v>
       </c>
       <c r="I12" t="n">
-        <v>34.40962839850521</v>
+        <v>33.34123416144443</v>
       </c>
       <c r="J12" t="n">
-        <v>94.42265036078989</v>
+        <v>91.4908949135891</v>
       </c>
       <c r="K12" t="n">
-        <v>161.3833488850657</v>
+        <v>156.3725118626623</v>
       </c>
       <c r="L12" t="n">
-        <v>216.9998285182166</v>
+        <v>210.2621397658989</v>
       </c>
       <c r="M12" t="n">
-        <v>237.1098912171571</v>
+        <v>245.365999682375</v>
       </c>
       <c r="N12" t="n">
-        <v>221.3261205280803</v>
+        <v>229.5822289932982</v>
       </c>
       <c r="O12" t="n">
-        <v>237.7858741062053</v>
+        <v>230.4027935739969</v>
       </c>
       <c r="P12" t="n">
-        <v>190.8441275431999</v>
+        <v>184.9185545122251</v>
       </c>
       <c r="Q12" t="n">
-        <v>127.5742452114771</v>
+        <v>123.6131565649272</v>
       </c>
       <c r="R12" t="n">
-        <v>62.05129931327896</v>
+        <v>60.12465105597547</v>
       </c>
       <c r="S12" t="n">
-        <v>18.56366576658209</v>
+        <v>17.98727728327606</v>
       </c>
       <c r="T12" t="n">
-        <v>4.028337388309079</v>
+        <v>3.903260406925785</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06370936463970274</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8118592259004739</v>
       </c>
       <c r="H13" t="n">
-        <v>7.44946717514094</v>
+        <v>7.218166572096946</v>
       </c>
       <c r="I13" t="n">
-        <v>25.1971752713356</v>
+        <v>24.41482108435244</v>
       </c>
       <c r="J13" t="n">
-        <v>59.23773642236304</v>
+        <v>57.3984472711635</v>
       </c>
       <c r="K13" t="n">
-        <v>97.34579805552262</v>
+        <v>94.32328097280049</v>
       </c>
       <c r="L13" t="n">
-        <v>124.569106525823</v>
+        <v>120.7013252761487</v>
       </c>
       <c r="M13" t="n">
-        <v>131.3406569539418</v>
+        <v>127.2626239291079</v>
       </c>
       <c r="N13" t="n">
-        <v>128.2176696923798</v>
+        <v>124.2366031780244</v>
       </c>
       <c r="O13" t="n">
-        <v>118.4297705921179</v>
+        <v>114.7526113118234</v>
       </c>
       <c r="P13" t="n">
-        <v>101.3371281166411</v>
+        <v>98.19068310345364</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.1605747957292</v>
+        <v>67.98213936153878</v>
       </c>
       <c r="R13" t="n">
-        <v>37.67389023338145</v>
+        <v>36.50414301185221</v>
       </c>
       <c r="S13" t="n">
-        <v>14.60186970832839</v>
+        <v>14.14849214592007</v>
       </c>
       <c r="T13" t="n">
-        <v>3.580009787644415</v>
+        <v>3.468853056120206</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04428323050366226</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.867897761542258</v>
+        <v>1.852764140673967</v>
       </c>
       <c r="H14" t="n">
-        <v>19.12960795039465</v>
+        <v>18.97462075567727</v>
       </c>
       <c r="I14" t="n">
-        <v>72.01212845185798</v>
+        <v>71.42868953333318</v>
       </c>
       <c r="J14" t="n">
-        <v>158.5354876386974</v>
+        <v>157.2510404845273</v>
       </c>
       <c r="K14" t="n">
-        <v>237.6035998847812</v>
+        <v>235.6785465592563</v>
       </c>
       <c r="L14" t="n">
-        <v>294.7682760045801</v>
+        <v>292.3800771294073</v>
       </c>
       <c r="M14" t="n">
-        <v>327.9865028214073</v>
+        <v>325.329171416118</v>
       </c>
       <c r="N14" t="n">
-        <v>333.2936673363892</v>
+        <v>330.5933375308079</v>
       </c>
       <c r="O14" t="n">
-        <v>314.7197589700534</v>
+        <v>312.1699141069811</v>
       </c>
       <c r="P14" t="n">
-        <v>268.6060329819788</v>
+        <v>266.4297993840925</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.7119443967466</v>
+        <v>200.077683596206</v>
       </c>
       <c r="R14" t="n">
-        <v>117.334332763479</v>
+        <v>116.3836954516112</v>
       </c>
       <c r="S14" t="n">
-        <v>42.56472024114425</v>
+        <v>42.21986285560807</v>
       </c>
       <c r="T14" t="n">
-        <v>8.176722451151239</v>
+        <v>8.110475025800294</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1482211312539173</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9913162097955106</v>
       </c>
       <c r="H15" t="n">
-        <v>9.65222952019216</v>
+        <v>9.574027605130327</v>
       </c>
       <c r="I15" t="n">
-        <v>34.4096283985052</v>
+        <v>34.13084318813491</v>
       </c>
       <c r="J15" t="n">
-        <v>94.42265036078987</v>
+        <v>93.65764243511008</v>
       </c>
       <c r="K15" t="n">
-        <v>161.3833488850657</v>
+        <v>160.0758284914093</v>
       </c>
       <c r="L15" t="n">
-        <v>216.9998285182166</v>
+        <v>215.2417059909068</v>
       </c>
       <c r="M15" t="n">
-        <v>237.1098912171571</v>
+        <v>251.176918595994</v>
       </c>
       <c r="N15" t="n">
-        <v>221.3261205280803</v>
+        <v>235.3931479069172</v>
       </c>
       <c r="O15" t="n">
-        <v>237.7858741062053</v>
+        <v>235.8593440034082</v>
       </c>
       <c r="P15" t="n">
-        <v>190.8441275431999</v>
+        <v>189.2979172898112</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.5742452114771</v>
+        <v>126.5406446047743</v>
       </c>
       <c r="R15" t="n">
-        <v>62.05129931327895</v>
+        <v>61.54856256958445</v>
       </c>
       <c r="S15" t="n">
-        <v>18.56366576658209</v>
+        <v>18.41326380914028</v>
       </c>
       <c r="T15" t="n">
-        <v>4.028337388309078</v>
+        <v>3.995699985974008</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.0652181716970731</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8310862098228108</v>
       </c>
       <c r="H16" t="n">
-        <v>7.449467175140939</v>
+        <v>7.389111938242814</v>
       </c>
       <c r="I16" t="n">
-        <v>25.1971752713356</v>
+        <v>24.99302892812599</v>
       </c>
       <c r="J16" t="n">
-        <v>59.23773642236303</v>
+        <v>58.75779503447272</v>
       </c>
       <c r="K16" t="n">
-        <v>97.34579805552261</v>
+        <v>96.55710692305017</v>
       </c>
       <c r="L16" t="n">
-        <v>124.569106525823</v>
+        <v>123.5598534131114</v>
       </c>
       <c r="M16" t="n">
-        <v>131.3406569539418</v>
+        <v>130.2765410543157</v>
       </c>
       <c r="N16" t="n">
-        <v>128.2176696923798</v>
+        <v>127.1788560904308</v>
       </c>
       <c r="O16" t="n">
-        <v>118.4297705921179</v>
+        <v>117.4702580938642</v>
       </c>
       <c r="P16" t="n">
-        <v>101.3371281166411</v>
+        <v>100.5160994134788</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.16057479572919</v>
+        <v>69.59213707889009</v>
       </c>
       <c r="R16" t="n">
-        <v>37.67389023338144</v>
+        <v>37.36865812530564</v>
       </c>
       <c r="S16" t="n">
-        <v>14.60186970832839</v>
+        <v>14.48356603845752</v>
       </c>
       <c r="T16" t="n">
-        <v>3.580009787644415</v>
+        <v>3.551004714697463</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04533197508124428</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H17" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I17" t="n">
         <v>72.01212845185798</v>
@@ -32241,22 +32241,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L17" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M17" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N17" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O17" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P17" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R17" t="n">
         <v>117.334332763479</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H18" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I18" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J18" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K18" t="n">
         <v>161.3833488850657</v>
@@ -32326,7 +32326,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N18" t="n">
-        <v>243.8120978185985</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O18" t="n">
         <v>237.7858741062053</v>
@@ -32338,16 +32338,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R18" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S18" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T18" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,16 +32387,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H19" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I19" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J19" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K19" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L19" t="n">
         <v>124.569106525823</v>
@@ -32414,10 +32414,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R19" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S19" t="n">
         <v>14.60186970832839</v>
@@ -32426,7 +32426,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,7 +32563,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N21" t="n">
-        <v>243.8120978185985</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O21" t="n">
         <v>237.7858741062053</v>
@@ -34362,7 +34362,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H44" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I44" t="n">
         <v>72.01212845185798</v>
@@ -34374,22 +34374,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L44" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M44" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N44" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O44" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P44" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R44" t="n">
         <v>117.334332763479</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H45" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I45" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J45" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K45" t="n">
         <v>161.3833488850657</v>
@@ -34471,16 +34471,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R45" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S45" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T45" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,16 +34520,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H46" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I46" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J46" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K46" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L46" t="n">
         <v>124.569106525823</v>
@@ -34547,10 +34547,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R46" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S46" t="n">
         <v>14.60186970832839</v>
@@ -34559,7 +34559,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>29.23886660620531</v>
+        <v>37.49497507142323</v>
       </c>
       <c r="M11" t="n">
-        <v>29.23886660620531</v>
+        <v>37.49497507142323</v>
       </c>
       <c r="N11" t="n">
-        <v>29.23886660620531</v>
+        <v>37.49497507142323</v>
       </c>
       <c r="O11" t="n">
-        <v>13.96205744399715</v>
+        <v>35.98002658368895</v>
       </c>
       <c r="P11" t="n">
-        <v>14.09544081448269</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>28.05749825847984</v>
+        <v>7.626359337832895</v>
       </c>
       <c r="M12" t="n">
-        <v>29.23886660620531</v>
+        <v>37.49497507142323</v>
       </c>
       <c r="N12" t="n">
-        <v>29.23886660620531</v>
+        <v>37.49497507142323</v>
       </c>
       <c r="O12" t="n">
-        <v>29.23886660620531</v>
+        <v>28.35366724585604</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>37.49497507142323</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>28.05749825847984</v>
+        <v>43.30589398504222</v>
       </c>
       <c r="M14" t="n">
-        <v>29.23886660620531</v>
+        <v>43.30589398504222</v>
       </c>
       <c r="N14" t="n">
-        <v>29.23886660620531</v>
+        <v>43.30589398504222</v>
       </c>
       <c r="O14" t="n">
-        <v>29.23886660620531</v>
+        <v>41.55616089473751</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>14.24382439132929</v>
       </c>
       <c r="L15" t="n">
-        <v>28.05749825847984</v>
+        <v>43.30589398504222</v>
       </c>
       <c r="M15" t="n">
-        <v>29.23886660620531</v>
+        <v>43.30589398504222</v>
       </c>
       <c r="N15" t="n">
-        <v>29.23886660620531</v>
+        <v>43.30589398504222</v>
       </c>
       <c r="O15" t="n">
-        <v>29.23886660620531</v>
+        <v>27.3123365034082</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>51.72484389672351</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M17" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N17" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O17" t="n">
-        <v>35.53951039954501</v>
+        <v>60.29863175498013</v>
       </c>
       <c r="P17" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>14.36404809015056</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="M18" t="n">
-        <v>45.35754004913034</v>
+        <v>65.10236512390519</v>
       </c>
       <c r="N18" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O18" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P18" t="n">
-        <v>41.63820697147023</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>35.53951039954501</v>
+        <v>58.55180989409087</v>
       </c>
       <c r="M20" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N20" t="n">
-        <v>51.72484389672351</v>
+        <v>60.29863175498025</v>
       </c>
       <c r="O20" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P20" t="n">
         <v>14.09544081448263</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>28.55120600833615</v>
       </c>
       <c r="L21" t="n">
-        <v>51.72484389672351</v>
+        <v>59.03713640608726</v>
       </c>
       <c r="M21" t="n">
-        <v>49.63495121402763</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="N21" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O21" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,13 +36366,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M23" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="N23" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="O23" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="P23" t="n">
         <v>14.09544081448269</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L24" t="n">
-        <v>75.70608231735569</v>
+        <v>25.66519133333687</v>
       </c>
       <c r="M24" t="n">
-        <v>45.35754004913036</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="N24" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O24" t="n">
-        <v>35.15227563715037</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P24" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M26" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="N26" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="O26" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="P26" t="n">
         <v>14.09544081448269</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L27" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="M27" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="N27" t="n">
-        <v>72.64725070857364</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="O27" t="n">
-        <v>75.70608231735569</v>
+        <v>45.53840338504045</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M29" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="N29" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="O29" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="P29" t="n">
         <v>14.09544081448269</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L30" t="n">
-        <v>14.36404809015059</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="M30" t="n">
-        <v>75.70608231735569</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="N30" t="n">
-        <v>67.84351733964857</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="O30" t="n">
-        <v>75.70608231735569</v>
+        <v>45.53840338504045</v>
       </c>
       <c r="P30" t="n">
-        <v>66.14576759613017</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,13 +37077,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M32" t="n">
-        <v>75.70608231735571</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="N32" t="n">
-        <v>75.70608231735571</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="O32" t="n">
-        <v>75.70608231735571</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="P32" t="n">
         <v>14.09544081448269</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L33" t="n">
         <v>14.36404809015059</v>
       </c>
       <c r="M33" t="n">
-        <v>66.14576759613021</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N33" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O33" t="n">
-        <v>75.70608231735571</v>
+        <v>72.39164169441156</v>
       </c>
       <c r="P33" t="n">
-        <v>75.70608231735571</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M35" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N35" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O35" t="n">
-        <v>60.29863175498013</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P35" t="n">
         <v>14.09544081448269</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="M36" t="n">
-        <v>45.35754004913036</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N36" t="n">
-        <v>67.84351733964857</v>
+        <v>72.64725070857367</v>
       </c>
       <c r="O36" t="n">
-        <v>59.0371364060872</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,16 +37551,16 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M38" t="n">
-        <v>67.84351733964857</v>
+        <v>69.89516340373672</v>
       </c>
       <c r="N38" t="n">
-        <v>67.84351733964857</v>
+        <v>64.31902909268824</v>
       </c>
       <c r="O38" t="n">
-        <v>67.84351733964857</v>
+        <v>69.89516340373672</v>
       </c>
       <c r="P38" t="n">
-        <v>6.550555229814288</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>28.55120600833618</v>
       </c>
       <c r="L39" t="n">
-        <v>14.36404809015059</v>
+        <v>35.87031320167812</v>
       </c>
       <c r="M39" t="n">
         <v>45.35754004913036</v>
@@ -37636,10 +37636,10 @@
         <v>67.84351733964857</v>
       </c>
       <c r="O39" t="n">
-        <v>44.67308831593663</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P39" t="n">
-        <v>67.84351733964857</v>
+        <v>69.89516340373672</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>29.42947135387474</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M41" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="N41" t="n">
-        <v>45.35754004913036</v>
+        <v>29.42947135387475</v>
       </c>
       <c r="O41" t="n">
         <v>45.35754004913036</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L42" t="n">
-        <v>45.35754004913036</v>
+        <v>14.97370616002124</v>
       </c>
       <c r="M42" t="n">
         <v>45.35754004913036</v>
@@ -37873,7 +37873,7 @@
         <v>45.35754004913036</v>
       </c>
       <c r="O42" t="n">
-        <v>43.52491216835742</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>29.4294713538748</v>
+        <v>29.42947135387474</v>
       </c>
       <c r="M44" t="n">
         <v>45.35754004913036</v>
@@ -38034,7 +38034,7 @@
         <v>45.35754004913036</v>
       </c>
       <c r="P44" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>45.35754004913036</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M45" t="n">
         <v>45.35754004913036</v>
@@ -38110,10 +38110,10 @@
         <v>45.35754004913036</v>
       </c>
       <c r="O45" t="n">
-        <v>43.52491216835742</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>45.27953752113186</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
